--- a/Code/Results/Cases/Case_5_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.459383497889121</v>
+        <v>4.099481059537936</v>
       </c>
       <c r="C2">
-        <v>0.4014539882234942</v>
+        <v>0.6758976470247262</v>
       </c>
       <c r="D2">
-        <v>0.1889018297147373</v>
+        <v>0.02475920075265492</v>
       </c>
       <c r="E2">
-        <v>0.1191439980092959</v>
+        <v>0.02312055368888633</v>
       </c>
       <c r="F2">
-        <v>6.564809234158417</v>
+        <v>3.129957104242095</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.183375824324802</v>
+        <v>0.05628174332870151</v>
       </c>
       <c r="K2">
-        <v>0.619474891162163</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2293664511169169</v>
+        <v>0.1736947582851869</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.6478008419449566</v>
+      </c>
+      <c r="N2">
+        <v>1.800527836456851</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.108648782507089</v>
+        <v>3.622732101747999</v>
       </c>
       <c r="C3">
-        <v>0.3421855040090804</v>
+        <v>0.5822937478002927</v>
       </c>
       <c r="D3">
-        <v>0.1679181841934536</v>
+        <v>0.02126101768826061</v>
       </c>
       <c r="E3">
-        <v>0.1027500612095231</v>
+        <v>0.02190387136263006</v>
       </c>
       <c r="F3">
-        <v>5.777278036599313</v>
+        <v>2.940734420800055</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1597571047095165</v>
+        <v>0.05687620886802414</v>
       </c>
       <c r="K3">
-        <v>0.5297346054874339</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1963081594352403</v>
+        <v>0.1602592203784283</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.5767697096831697</v>
+      </c>
+      <c r="N3">
+        <v>1.839928576455236</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.899414226618404</v>
+        <v>3.336862311785296</v>
       </c>
       <c r="C4">
-        <v>0.3068358267107101</v>
+        <v>0.5258888303617937</v>
       </c>
       <c r="D4">
-        <v>0.1553621864459416</v>
+        <v>0.01920214715251589</v>
       </c>
       <c r="E4">
-        <v>0.09297544141627156</v>
+        <v>0.0211666700265809</v>
       </c>
       <c r="F4">
-        <v>5.306380146406781</v>
+        <v>2.830573333924789</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1456496306477817</v>
+        <v>0.05725138689661158</v>
       </c>
       <c r="K4">
-        <v>0.4762002946133279</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1765942702946717</v>
+        <v>0.1522719594255264</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.5342314022020389</v>
+      </c>
+      <c r="N4">
+        <v>1.866310326903957</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.815464527379959</v>
+        <v>3.221900475434381</v>
       </c>
       <c r="C5">
-        <v>0.2926491869041001</v>
+        <v>0.5031337406535101</v>
       </c>
       <c r="D5">
-        <v>0.150313593470571</v>
+        <v>0.01838242561059644</v>
       </c>
       <c r="E5">
-        <v>0.08905493858281588</v>
+        <v>0.02086809822086622</v>
       </c>
       <c r="F5">
-        <v>5.117190564835141</v>
+        <v>2.787068148936882</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1399853117693795</v>
+        <v>0.05740686225514313</v>
       </c>
       <c r="K5">
-        <v>0.4547197029765826</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1686855318524181</v>
+        <v>0.1490776216020322</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.5171385426186319</v>
+      </c>
+      <c r="N5">
+        <v>1.877584328562406</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.801598127155472</v>
+        <v>3.202898420377267</v>
       </c>
       <c r="C6">
-        <v>0.2903055455037133</v>
+        <v>0.499368135765792</v>
       </c>
       <c r="D6">
-        <v>0.1494789989396139</v>
+        <v>0.01824739120759133</v>
       </c>
       <c r="E6">
-        <v>0.08840744597923944</v>
+        <v>0.02081861465085044</v>
       </c>
       <c r="F6">
-        <v>5.085926244974672</v>
+        <v>2.779924346056234</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.139049468545565</v>
+        <v>0.05743283592099679</v>
       </c>
       <c r="K6">
-        <v>0.4511715131436773</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1673792354683101</v>
+        <v>0.1485507114424323</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.5143141071112254</v>
+      </c>
+      <c r="N6">
+        <v>1.87948721598741</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.898277003380201</v>
+        <v>3.335305932562733</v>
       </c>
       <c r="C7">
-        <v>0.3066436688210388</v>
+        <v>0.5255810625617983</v>
       </c>
       <c r="D7">
-        <v>0.1552938415987768</v>
+        <v>0.01919101789905753</v>
       </c>
       <c r="E7">
-        <v>0.09292232717383442</v>
+        <v>0.02116263670794005</v>
       </c>
       <c r="F7">
-        <v>5.303818307127017</v>
+        <v>2.829981155590289</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1455729152847063</v>
+        <v>0.05725347317804008</v>
       </c>
       <c r="K7">
-        <v>0.4759093159514123</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1764871321041781</v>
+        <v>0.1522286411570946</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.5339999385497052</v>
+      </c>
+      <c r="N7">
+        <v>1.866460287874375</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.337037367386415</v>
+        <v>3.933554198115417</v>
       </c>
       <c r="C8">
-        <v>0.3807743153972751</v>
+        <v>0.6433771478626227</v>
       </c>
       <c r="D8">
-        <v>0.1815893764070751</v>
+        <v>0.02353258393755198</v>
       </c>
       <c r="E8">
-        <v>0.1134241725644358</v>
+        <v>0.0226985967602813</v>
       </c>
       <c r="F8">
-        <v>6.290339260839318</v>
+        <v>3.063382439585425</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1751408689154417</v>
+        <v>0.05648462118206954</v>
       </c>
       <c r="K8">
-        <v>0.588169583831025</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.217832623811141</v>
+        <v>0.1690043567184887</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.623068196024775</v>
+      </c>
+      <c r="N8">
+        <v>1.813641520526431</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.257702001318933</v>
+        <v>5.170784290626784</v>
       </c>
       <c r="C9">
-        <v>0.5366893788249172</v>
+        <v>0.8847866348227456</v>
       </c>
       <c r="D9">
-        <v>0.2365090748466088</v>
+        <v>0.03291081486455028</v>
       </c>
       <c r="E9">
-        <v>0.1564904095068869</v>
+        <v>0.02582109126529808</v>
       </c>
       <c r="F9">
-        <v>8.350062216035496</v>
+        <v>3.575314734748588</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2370165988362771</v>
+        <v>0.05505626818132248</v>
       </c>
       <c r="K9">
-        <v>0.8238332659351215</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3047015282027701</v>
+        <v>0.2042543870284632</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.8076989604109528</v>
+      </c>
+      <c r="N9">
+        <v>1.728811803681864</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.990339272613767</v>
+        <v>6.13411240414365</v>
       </c>
       <c r="C10">
-        <v>0.6614967250002053</v>
+        <v>1.071567611621333</v>
       </c>
       <c r="D10">
-        <v>0.2801463664062567</v>
+        <v>0.0405810537340372</v>
       </c>
       <c r="E10">
-        <v>0.190790186320811</v>
+        <v>0.02823459751179946</v>
       </c>
       <c r="F10">
-        <v>9.980598456585824</v>
+        <v>3.994669801897601</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2861126052651457</v>
+        <v>0.05405330485794568</v>
       </c>
       <c r="K10">
-        <v>1.011591483412062</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3739811629853378</v>
+        <v>0.2320168170540597</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.9516955168187877</v>
+      </c>
+      <c r="N10">
+        <v>1.68008567015714</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.341355749055538</v>
+        <v>6.588149011248788</v>
       </c>
       <c r="C11">
-        <v>0.7215969596308014</v>
+        <v>1.159391557314905</v>
       </c>
       <c r="D11">
-        <v>0.3010614230794886</v>
+        <v>0.04430751129490318</v>
       </c>
       <c r="E11">
-        <v>0.207229225236631</v>
+        <v>0.02937248493226097</v>
       </c>
       <c r="F11">
-        <v>10.75931190611959</v>
+        <v>4.197497570268808</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3095919291303915</v>
+        <v>0.05360670666209177</v>
       </c>
       <c r="K11">
-        <v>1.10164268063339</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4072293998295535</v>
+        <v>0.2451635397850964</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.019609683299059</v>
+      </c>
+      <c r="N11">
+        <v>1.661442929713829</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.477406818679299</v>
+        <v>6.762744275770956</v>
       </c>
       <c r="C12">
-        <v>0.7449498122266505</v>
+        <v>1.193138094081689</v>
       </c>
       <c r="D12">
-        <v>0.309171060413945</v>
+        <v>0.04575948878038361</v>
       </c>
       <c r="E12">
-        <v>0.2136015226639358</v>
+        <v>0.02981052111829641</v>
       </c>
       <c r="F12">
-        <v>11.06070595981862</v>
+        <v>4.276297912198118</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3186847630277612</v>
+        <v>0.05343894983084185</v>
       </c>
       <c r="K12">
-        <v>1.136563905323158</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4201263659080183</v>
+        <v>0.2502271559265665</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.045731301722824</v>
+      </c>
+      <c r="N12">
+        <v>1.654946487461146</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.447956082881774</v>
+        <v>6.725016914444097</v>
       </c>
       <c r="C13">
-        <v>0.7398918014114315</v>
+        <v>1.185847020241056</v>
       </c>
       <c r="D13">
-        <v>0.3074154091402335</v>
+        <v>0.0454448436433168</v>
       </c>
       <c r="E13">
-        <v>0.2122220961850445</v>
+        <v>0.0297158397882642</v>
       </c>
       <c r="F13">
-        <v>10.99548399669015</v>
+        <v>4.259233629111435</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3167168128569813</v>
+        <v>0.05347501919100317</v>
       </c>
       <c r="K13">
-        <v>1.129003682176915</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4173340891564976</v>
+        <v>0.2491326355143713</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.040086569837911</v>
+      </c>
+      <c r="N13">
+        <v>1.656319574044346</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.352482292213324</v>
+        <v>6.60245730841541</v>
       </c>
       <c r="C14">
-        <v>0.7235055468142946</v>
+        <v>1.162157601127944</v>
       </c>
       <c r="D14">
-        <v>0.3017245720348569</v>
+        <v>0.04442610520346335</v>
       </c>
       <c r="E14">
-        <v>0.2077503529894429</v>
+        <v>0.02940837045959199</v>
       </c>
       <c r="F14">
-        <v>10.78396952648512</v>
+        <v>4.203938939751055</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3103357192856748</v>
+        <v>0.05359287809810098</v>
       </c>
       <c r="K14">
-        <v>1.104498221752024</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4082839233133484</v>
+        <v>0.2455783506955243</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.021750268532585</v>
+      </c>
+      <c r="N14">
+        <v>1.660896822787691</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.29442855599774</v>
+        <v>6.527745068323327</v>
       </c>
       <c r="C15">
-        <v>0.7135497583297763</v>
+        <v>1.147713436031779</v>
       </c>
       <c r="D15">
-        <v>0.2982646706240359</v>
+        <v>0.04380763666354426</v>
       </c>
       <c r="E15">
-        <v>0.2050313477455177</v>
+        <v>0.02922101217357476</v>
       </c>
       <c r="F15">
-        <v>10.65529857337435</v>
+        <v>4.170337352871229</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3064546163781046</v>
+        <v>0.05366524642881343</v>
       </c>
       <c r="K15">
-        <v>1.089599935267586</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4027822760080539</v>
+        <v>0.2434126967166605</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.010573216056137</v>
+      </c>
+      <c r="N15">
+        <v>1.663775681938191</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.967803154916794</v>
+        <v>6.104790132677977</v>
       </c>
       <c r="C16">
-        <v>0.6576452983938168</v>
+        <v>1.065892060108354</v>
       </c>
       <c r="D16">
-        <v>0.2788038878163093</v>
+        <v>0.04034284635130803</v>
       </c>
       <c r="E16">
-        <v>0.1897348591566654</v>
+        <v>0.02816115237349504</v>
       </c>
       <c r="F16">
-        <v>9.930548476072403</v>
+        <v>3.981678574463984</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2846042186580888</v>
+        <v>0.05408268292296281</v>
       </c>
       <c r="K16">
-        <v>1.005812190842136</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.371847816326742</v>
+        <v>0.2311689517537303</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9473103830727965</v>
+      </c>
+      <c r="N16">
+        <v>1.681379556732296</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.772346900299965</v>
+        <v>5.84963004362146</v>
       </c>
       <c r="C17">
-        <v>0.6242763246481218</v>
+        <v>1.016481383721214</v>
       </c>
       <c r="D17">
-        <v>0.2671616353397326</v>
+        <v>0.03828253628807943</v>
       </c>
       <c r="E17">
-        <v>0.1805825768104299</v>
+        <v>0.02752212387252584</v>
       </c>
       <c r="F17">
-        <v>9.496185325135684</v>
+        <v>3.869204918208254</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2715171152920774</v>
+        <v>0.0543412188275445</v>
       </c>
       <c r="K17">
-        <v>0.9556989294062959</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3533515194376804</v>
+        <v>0.2237975835981416</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9091562217101483</v>
+      </c>
+      <c r="N17">
+        <v>1.693118997593587</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.661554235020901</v>
+        <v>5.704330984433398</v>
       </c>
       <c r="C18">
-        <v>0.6053880801408411</v>
+        <v>0.9883251788743337</v>
       </c>
       <c r="D18">
-        <v>0.2605629193179908</v>
+        <v>0.03711936871624744</v>
       </c>
       <c r="E18">
-        <v>0.1753952028240278</v>
+        <v>0.0271582381920199</v>
       </c>
       <c r="F18">
-        <v>9.249747320490741</v>
+        <v>3.805630736170656</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2640949553552119</v>
+        <v>0.05449083218755923</v>
       </c>
       <c r="K18">
-        <v>0.927300897735023</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3428719607273081</v>
+        <v>0.219605742064374</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8874338542846019</v>
+      </c>
+      <c r="N18">
+        <v>1.700198982249177</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.624305724946112</v>
+        <v>5.655375440512103</v>
       </c>
       <c r="C19">
-        <v>0.5990420347640395</v>
+        <v>0.9788350135149244</v>
       </c>
       <c r="D19">
-        <v>0.2583444749323291</v>
+        <v>0.03672910776510463</v>
       </c>
       <c r="E19">
-        <v>0.1736512987135299</v>
+        <v>0.02703562358257638</v>
       </c>
       <c r="F19">
-        <v>9.166858324311988</v>
+        <v>3.784290259125498</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2615989974590178</v>
+        <v>0.05454164594637634</v>
       </c>
       <c r="K19">
-        <v>0.9177547655720417</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3393495135002524</v>
+        <v>0.2181943903986934</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8801156939409509</v>
+      </c>
+      <c r="N19">
+        <v>1.702650846710611</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.792981186597729</v>
+        <v>5.876638298600142</v>
       </c>
       <c r="C20">
-        <v>0.6277962105893096</v>
+        <v>1.02171342826631</v>
       </c>
       <c r="D20">
-        <v>0.2683906307105843</v>
+        <v>0.03849955110059966</v>
       </c>
       <c r="E20">
-        <v>0.1815487287648949</v>
+        <v>0.02758976067553132</v>
       </c>
       <c r="F20">
-        <v>9.542064631803754</v>
+        <v>3.881060491764941</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2728991279166308</v>
+        <v>0.05431360323311818</v>
       </c>
       <c r="K20">
-        <v>0.9609884918037181</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3553036453974983</v>
+        <v>0.2245772394955736</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9131943374163427</v>
+      </c>
+      <c r="N20">
+        <v>1.69183500775911</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.38043511899042</v>
+        <v>6.6383804356459</v>
       </c>
       <c r="C21">
-        <v>0.7283014064791189</v>
+        <v>1.169101785745511</v>
       </c>
       <c r="D21">
-        <v>0.3033906347845488</v>
+        <v>0.04472416563279324</v>
       </c>
       <c r="E21">
-        <v>0.2090595739998946</v>
+        <v>0.02949847552561646</v>
       </c>
       <c r="F21">
-        <v>10.84590894853739</v>
+        <v>4.220123960187379</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3122041925264014</v>
+        <v>0.05355822337618354</v>
       </c>
       <c r="K21">
-        <v>1.111672402886086</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4109333362975249</v>
+        <v>0.2466199229788231</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.027124620288618</v>
+      </c>
+      <c r="N21">
+        <v>1.659536597036379</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.782971936907586</v>
+        <v>7.151958544573688</v>
       </c>
       <c r="C22">
-        <v>0.7975248760837133</v>
+        <v>1.26832740407184</v>
       </c>
       <c r="D22">
-        <v>0.3273930101368165</v>
+        <v>0.04903436685079754</v>
       </c>
       <c r="E22">
-        <v>0.2279144309713175</v>
+        <v>0.03078838951542728</v>
       </c>
       <c r="F22">
-        <v>11.73675301669152</v>
+        <v>4.453492546464616</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.339091371094014</v>
+        <v>0.05307245638544122</v>
       </c>
       <c r="K22">
-        <v>1.215034494961643</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4491138735007922</v>
+        <v>0.2615291175300172</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.103972477729144</v>
+      </c>
+      <c r="N22">
+        <v>1.641742910387876</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.566203123905836</v>
+        <v>6.876269137348572</v>
       </c>
       <c r="C23">
-        <v>0.7602098186474109</v>
+        <v>1.21507434791738</v>
       </c>
       <c r="D23">
-        <v>0.3144650990828239</v>
+        <v>0.04670926116845919</v>
       </c>
       <c r="E23">
-        <v>0.2177606836304022</v>
+        <v>0.03009552924925263</v>
       </c>
       <c r="F23">
-        <v>11.25728754961517</v>
+        <v>4.327766267110405</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3246170829722672</v>
+        <v>0.05333100349682018</v>
       </c>
       <c r="K23">
-        <v>1.159361588543206</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.428546964771968</v>
+        <v>0.2535217763842041</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.062717575381043</v>
+      </c>
+      <c r="N23">
+        <v>1.650915415680117</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.783647553448361</v>
+        <v>5.864423547224135</v>
       </c>
       <c r="C24">
-        <v>0.6262039565251598</v>
+        <v>1.019347245998745</v>
       </c>
       <c r="D24">
-        <v>0.267834709992556</v>
+        <v>0.03840137275323485</v>
       </c>
       <c r="E24">
-        <v>0.1811117017026902</v>
+        <v>0.0275591712763168</v>
       </c>
       <c r="F24">
-        <v>9.521312457857789</v>
+        <v>3.875697215892615</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2722740056466009</v>
+        <v>0.05432608519610316</v>
       </c>
       <c r="K24">
-        <v>0.9585958061754667</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3544206130939926</v>
+        <v>0.2242246144071203</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9113680461948235</v>
+      </c>
+      <c r="N24">
+        <v>1.692414473293667</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.000374074808633</v>
+        <v>4.827757088455485</v>
       </c>
       <c r="C25">
-        <v>0.4930269617829879</v>
+        <v>0.8180706383511449</v>
       </c>
       <c r="D25">
-        <v>0.2211768297441523</v>
+        <v>0.03025717133574801</v>
       </c>
       <c r="E25">
-        <v>0.1444483071208325</v>
+        <v>0.02495961000520452</v>
       </c>
       <c r="F25">
-        <v>7.775629243361266</v>
+        <v>3.430042188887001</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2197430327153143</v>
+        <v>0.05543437899898151</v>
       </c>
       <c r="K25">
-        <v>0.7579394825180259</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2804022066098213</v>
+        <v>0.1944251655769307</v>
       </c>
       <c r="M25">
+        <v>0.7564664464512987</v>
+      </c>
+      <c r="N25">
+        <v>1.749546169694511</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_43/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.099481059537936</v>
+        <v>2.490588410065186</v>
       </c>
       <c r="C2">
-        <v>0.6758976470247262</v>
+        <v>0.602142138389695</v>
       </c>
       <c r="D2">
-        <v>0.02475920075265492</v>
+        <v>0.04244011435421413</v>
       </c>
       <c r="E2">
-        <v>0.02312055368888633</v>
+        <v>0.1973378912769235</v>
       </c>
       <c r="F2">
-        <v>3.129957104242095</v>
+        <v>0.4764098928200369</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05628174332870151</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1736947582851869</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6478008419449566</v>
+        <v>0.9714923350744158</v>
       </c>
       <c r="N2">
-        <v>1.800527836456851</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.287174186457321</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.622732101747999</v>
+        <v>2.16841885884952</v>
       </c>
       <c r="C3">
-        <v>0.5822937478002927</v>
+        <v>0.5333479836565402</v>
       </c>
       <c r="D3">
-        <v>0.02126101768826061</v>
+        <v>0.03793634379182009</v>
       </c>
       <c r="E3">
-        <v>0.02190387136263006</v>
+        <v>0.1725761497272913</v>
       </c>
       <c r="F3">
-        <v>2.940734420800055</v>
+        <v>0.434631576036935</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05687620886802414</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1602592203784283</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5767697096831697</v>
+        <v>0.8411327417321175</v>
       </c>
       <c r="N3">
-        <v>1.839928576455236</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.198106337389049</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.336862311785296</v>
+        <v>1.971002228528391</v>
       </c>
       <c r="C4">
-        <v>0.5258888303617937</v>
+        <v>0.4911359676892744</v>
       </c>
       <c r="D4">
-        <v>0.01920214715251589</v>
+        <v>0.0351716945853866</v>
       </c>
       <c r="E4">
-        <v>0.0211666700265809</v>
+        <v>0.1579137412166887</v>
       </c>
       <c r="F4">
-        <v>2.830573333924789</v>
+        <v>0.4104129417739344</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05725138689661158</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1522719594255264</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5342314022020389</v>
+        <v>0.7616806067225852</v>
       </c>
       <c r="N4">
-        <v>1.866310326903957</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.148180567778809</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.221900475434381</v>
+        <v>1.890616490981529</v>
       </c>
       <c r="C5">
-        <v>0.5031337406535101</v>
+        <v>0.4739345433804942</v>
       </c>
       <c r="D5">
-        <v>0.01838242561059644</v>
+        <v>0.03404488631592528</v>
       </c>
       <c r="E5">
-        <v>0.02086809822086622</v>
+        <v>0.1520609614487114</v>
       </c>
       <c r="F5">
-        <v>2.787068148936882</v>
+        <v>0.4008775377946776</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05740686225514313</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1490776216020322</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5171385426186319</v>
+        <v>0.7294260949910338</v>
       </c>
       <c r="N5">
-        <v>1.877584328562406</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.128948530696221</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.202898420377267</v>
+        <v>1.877271292671878</v>
       </c>
       <c r="C6">
-        <v>0.499368135765792</v>
+        <v>0.4710780932527427</v>
       </c>
       <c r="D6">
-        <v>0.01824739120759133</v>
+        <v>0.03385775914184563</v>
       </c>
       <c r="E6">
-        <v>0.02081861465085044</v>
+        <v>0.1510961089319096</v>
       </c>
       <c r="F6">
-        <v>2.779924346056234</v>
+        <v>0.3993136095174989</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05743283592099679</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1485507114424323</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5143141071112254</v>
+        <v>0.7240769728145722</v>
       </c>
       <c r="N6">
-        <v>1.87948721598741</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.125819921159717</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.335305932562733</v>
+        <v>1.969917909242213</v>
       </c>
       <c r="C7">
-        <v>0.5255810625617983</v>
+        <v>0.4909039904616463</v>
       </c>
       <c r="D7">
-        <v>0.01919101789905753</v>
+        <v>0.03515649928502995</v>
       </c>
       <c r="E7">
-        <v>0.02116263670794005</v>
+        <v>0.1578343311612969</v>
       </c>
       <c r="F7">
-        <v>2.829981155590289</v>
+        <v>0.4102830260784316</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05725347317804008</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1522286411570946</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5339999385497052</v>
+        <v>0.7612451457414622</v>
       </c>
       <c r="N7">
-        <v>1.866460287874375</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.147916798763646</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.933554198115417</v>
+        <v>2.379399043808746</v>
       </c>
       <c r="C8">
-        <v>0.6433771478626227</v>
+        <v>0.5784119162115928</v>
       </c>
       <c r="D8">
-        <v>0.02353258393755198</v>
+        <v>0.04088684151574995</v>
       </c>
       <c r="E8">
-        <v>0.0226985967602813</v>
+        <v>0.1886790220477153</v>
       </c>
       <c r="F8">
-        <v>3.063382439585425</v>
+        <v>0.4616907410062225</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05648462118206954</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1690043567184887</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.623068196024775</v>
+        <v>0.9264062733471334</v>
       </c>
       <c r="N8">
-        <v>1.813641520526431</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.255422807759118</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.170784290626784</v>
+        <v>3.187365141363955</v>
       </c>
       <c r="C9">
-        <v>0.8847866348227456</v>
+        <v>0.7505735031485301</v>
       </c>
       <c r="D9">
-        <v>0.03291081486455028</v>
+        <v>0.05214822497107718</v>
       </c>
       <c r="E9">
-        <v>0.02582109126529808</v>
+        <v>0.2541407036658825</v>
       </c>
       <c r="F9">
-        <v>3.575314734748588</v>
+        <v>0.5751588828699141</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05505626818132248</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2042543870284632</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8076989604109528</v>
+        <v>1.256208035664159</v>
       </c>
       <c r="N9">
-        <v>1.728811803681864</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.508108333126927</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.13411240414365</v>
+        <v>3.786825699346934</v>
       </c>
       <c r="C10">
-        <v>1.071567611621333</v>
+        <v>0.8779269677327477</v>
       </c>
       <c r="D10">
-        <v>0.0405810537340372</v>
+        <v>0.06046658905284374</v>
       </c>
       <c r="E10">
-        <v>0.02823459751179946</v>
+        <v>0.306304523621904</v>
       </c>
       <c r="F10">
-        <v>3.994669801897601</v>
+        <v>0.6681683952806878</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05405330485794568</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2320168170540597</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9516955168187877</v>
+        <v>1.504029589029827</v>
       </c>
       <c r="N10">
-        <v>1.68008567015714</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.725407323223124</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.588149011248788</v>
+        <v>4.061500025455416</v>
       </c>
       <c r="C11">
-        <v>1.159391557314905</v>
+        <v>0.9361822293326441</v>
       </c>
       <c r="D11">
-        <v>0.04430751129490318</v>
+        <v>0.0642681071370248</v>
       </c>
       <c r="E11">
-        <v>0.02937248493226097</v>
+        <v>0.3311765905602826</v>
       </c>
       <c r="F11">
-        <v>4.197497570268808</v>
+        <v>0.7130448387002843</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05360670666209177</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2451635397850964</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.019609683299059</v>
+        <v>1.618439175383656</v>
       </c>
       <c r="N11">
-        <v>1.661442929713829</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.832631311026802</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.762744275770956</v>
+        <v>4.165859092549852</v>
       </c>
       <c r="C12">
-        <v>1.193138094081689</v>
+        <v>0.9583000725727402</v>
       </c>
       <c r="D12">
-        <v>0.04575948878038361</v>
+        <v>0.06571084921125703</v>
       </c>
       <c r="E12">
-        <v>0.02981052111829641</v>
+        <v>0.3407833224150849</v>
       </c>
       <c r="F12">
-        <v>4.276297912198118</v>
+        <v>0.7304503761170196</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05343894983084185</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2502271559265665</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.045731301722824</v>
+        <v>1.662047115303253</v>
       </c>
       <c r="N12">
-        <v>1.654946487461146</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.874575823318878</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.725016914444097</v>
+        <v>4.143367074539412</v>
       </c>
       <c r="C13">
-        <v>1.185847020241056</v>
+        <v>0.9535338297906719</v>
       </c>
       <c r="D13">
-        <v>0.0454448436433168</v>
+        <v>0.06539997539202602</v>
       </c>
       <c r="E13">
-        <v>0.0297158397882642</v>
+        <v>0.3387055616068082</v>
       </c>
       <c r="F13">
-        <v>4.259233629111435</v>
+        <v>0.7266827437959904</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05347501919100317</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2491326355143713</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.040086569837911</v>
+        <v>1.652642029832478</v>
       </c>
       <c r="N13">
-        <v>1.656319574044346</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.865480359004039</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.60245730841541</v>
+        <v>4.070078403524121</v>
       </c>
       <c r="C14">
-        <v>1.162157601127944</v>
+        <v>0.9380006478634755</v>
       </c>
       <c r="D14">
-        <v>0.04442610520346335</v>
+        <v>0.06438673430567121</v>
       </c>
       <c r="E14">
-        <v>0.02940837045959199</v>
+        <v>0.3319630239219151</v>
       </c>
       <c r="F14">
-        <v>4.203938939751055</v>
+        <v>0.7144682905395285</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05359287809810098</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2455783506955243</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.021750268532585</v>
+        <v>1.622020884913269</v>
       </c>
       <c r="N14">
-        <v>1.660896822787691</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.836054403753536</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.527745068323327</v>
+        <v>4.025233945032085</v>
       </c>
       <c r="C15">
-        <v>1.147713436031779</v>
+        <v>0.9284940217341102</v>
       </c>
       <c r="D15">
-        <v>0.04380763666354426</v>
+        <v>0.06376653173919777</v>
       </c>
       <c r="E15">
-        <v>0.02922101217357476</v>
+        <v>0.3278582896704449</v>
       </c>
       <c r="F15">
-        <v>4.170337352871229</v>
+        <v>0.7070415507079133</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05366524642881343</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2434126967166605</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.010573216056137</v>
+        <v>1.603302811687527</v>
       </c>
       <c r="N15">
-        <v>1.663775681938191</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.818209089304418</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.104790132677977</v>
+        <v>3.768919999557852</v>
       </c>
       <c r="C16">
-        <v>1.065892060108354</v>
+        <v>0.8741272857956801</v>
       </c>
       <c r="D16">
-        <v>0.04034284635130803</v>
+        <v>0.06021855854047686</v>
       </c>
       <c r="E16">
-        <v>0.02816115237349504</v>
+        <v>0.3047040550971332</v>
       </c>
       <c r="F16">
-        <v>3.981678574463984</v>
+        <v>0.6652908219056286</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05408268292296281</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2311689517537303</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9473103830727965</v>
+        <v>1.49658990503201</v>
       </c>
       <c r="N16">
-        <v>1.681379556732296</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.718579912403072</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.84963004362146</v>
+        <v>3.61222803879491</v>
       </c>
       <c r="C17">
-        <v>1.016481383721214</v>
+        <v>0.8408653123849206</v>
       </c>
       <c r="D17">
-        <v>0.03828253628807943</v>
+        <v>0.05804692269423128</v>
       </c>
       <c r="E17">
-        <v>0.02752212387252584</v>
+        <v>0.2908085640853102</v>
       </c>
       <c r="F17">
-        <v>3.869204918208254</v>
+        <v>0.6403645926100268</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0543412188275445</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2237975835981416</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9091562217101483</v>
+        <v>1.431582954015241</v>
       </c>
       <c r="N17">
-        <v>1.693118997593587</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.659698962460283</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.704330984433398</v>
+        <v>3.522285008600079</v>
       </c>
       <c r="C18">
-        <v>0.9883251788743337</v>
+        <v>0.821763409779237</v>
       </c>
       <c r="D18">
-        <v>0.03711936871624744</v>
+        <v>0.05679945294303934</v>
       </c>
       <c r="E18">
-        <v>0.0271582381920199</v>
+        <v>0.2829222095760429</v>
       </c>
       <c r="F18">
-        <v>3.805630736170656</v>
+        <v>0.6262664252733003</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05449083218755923</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.219605742064374</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8874338542846019</v>
+        <v>1.394347475357705</v>
       </c>
       <c r="N18">
-        <v>1.700198982249177</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.6266114576961</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.655375440512103</v>
+        <v>3.491861324712943</v>
       </c>
       <c r="C19">
-        <v>0.9788350135149244</v>
+        <v>0.815300565837731</v>
       </c>
       <c r="D19">
-        <v>0.03672910776510463</v>
+        <v>0.05637733601150074</v>
       </c>
       <c r="E19">
-        <v>0.02703562358257638</v>
+        <v>0.2802695353691576</v>
       </c>
       <c r="F19">
-        <v>3.784290259125498</v>
+        <v>0.621532788380037</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05454164594637634</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2181943903986934</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8801156939409509</v>
+        <v>1.381765533487922</v>
       </c>
       <c r="N19">
-        <v>1.702650846710611</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.615538460300826</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.876638298600142</v>
+        <v>3.628888896782996</v>
       </c>
       <c r="C20">
-        <v>1.02171342826631</v>
+        <v>0.8444029721250672</v>
       </c>
       <c r="D20">
-        <v>0.03849955110059966</v>
+        <v>0.05827792698576673</v>
       </c>
       <c r="E20">
-        <v>0.02758976067553132</v>
+        <v>0.2922766303803073</v>
       </c>
       <c r="F20">
-        <v>3.881060491764941</v>
+        <v>0.6429930254159189</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05431360323311818</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2245772394955736</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9131943374163427</v>
+        <v>1.438486737219435</v>
       </c>
       <c r="N20">
-        <v>1.69183500775911</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.665885336444319</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.6383804356459</v>
+        <v>4.091595156272717</v>
       </c>
       <c r="C21">
-        <v>1.169101785745511</v>
+        <v>0.9425614519992394</v>
       </c>
       <c r="D21">
-        <v>0.04472416563279324</v>
+        <v>0.06468425541265788</v>
       </c>
       <c r="E21">
-        <v>0.02949847552561646</v>
+        <v>0.3339381592224839</v>
       </c>
       <c r="F21">
-        <v>4.220123960187379</v>
+        <v>0.718044434849503</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05355822337618354</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2466199229788231</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.027124620288618</v>
+        <v>1.631007001307367</v>
       </c>
       <c r="N21">
-        <v>1.659536597036379</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.84465996822243</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.151958544573688</v>
+        <v>4.396049265857812</v>
       </c>
       <c r="C22">
-        <v>1.26832740407184</v>
+        <v>1.007057057206481</v>
       </c>
       <c r="D22">
-        <v>0.04903436685079754</v>
+        <v>0.06889012454195154</v>
       </c>
       <c r="E22">
-        <v>0.03078838951542728</v>
+        <v>0.3622764424804998</v>
       </c>
       <c r="F22">
-        <v>4.453492546464616</v>
+        <v>0.7695179066547269</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05307245638544122</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2615291175300172</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.103972477729144</v>
+        <v>1.758505621455726</v>
       </c>
       <c r="N22">
-        <v>1.641742910387876</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.969389477186525</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.876269137348572</v>
+        <v>4.233347008743976</v>
       </c>
       <c r="C23">
-        <v>1.21507434791738</v>
+        <v>0.9725989829244952</v>
       </c>
       <c r="D23">
-        <v>0.04670926116845919</v>
+        <v>0.06664339315287293</v>
       </c>
       <c r="E23">
-        <v>0.03009552924925263</v>
+        <v>0.3470416170279336</v>
       </c>
       <c r="F23">
-        <v>4.327766267110405</v>
+        <v>0.7418086580026824</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05333100349682018</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2535217763842041</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.062717575381043</v>
+        <v>1.690288649141749</v>
       </c>
       <c r="N23">
-        <v>1.650915415680117</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.902048437059733</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.864423547224135</v>
+        <v>3.621356087462914</v>
       </c>
       <c r="C24">
-        <v>1.019347245998745</v>
+        <v>0.8428035320795288</v>
       </c>
       <c r="D24">
-        <v>0.03840137275323485</v>
+        <v>0.0581734867796655</v>
       </c>
       <c r="E24">
-        <v>0.0275591712763168</v>
+        <v>0.291612600593929</v>
       </c>
       <c r="F24">
-        <v>3.875697215892615</v>
+        <v>0.6418039907155872</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05432608519610316</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2242246144071203</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9113680461948235</v>
+        <v>1.435365110535869</v>
       </c>
       <c r="N24">
-        <v>1.692414473293667</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.663086107475152</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.827757088455485</v>
+        <v>2.967980209075904</v>
       </c>
       <c r="C25">
-        <v>0.8180706383511449</v>
+        <v>0.70388801974795</v>
       </c>
       <c r="D25">
-        <v>0.03025717133574801</v>
+        <v>0.04909623628461901</v>
       </c>
       <c r="E25">
-        <v>0.02495961000520452</v>
+        <v>0.2357977348421016</v>
       </c>
       <c r="F25">
-        <v>3.430042188887001</v>
+        <v>0.5429177541822625</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05543437899898151</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1944251655769307</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7564664464512987</v>
+        <v>1.166167232844941</v>
       </c>
       <c r="N25">
-        <v>1.749546169694511</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.434665084700129</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_43/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.490588410065186</v>
+        <v>0.8189485623975088</v>
       </c>
       <c r="C2">
-        <v>0.602142138389695</v>
+        <v>0.2061131566122185</v>
       </c>
       <c r="D2">
-        <v>0.04244011435421413</v>
+        <v>0.01661023264762918</v>
       </c>
       <c r="E2">
-        <v>0.1973378912769235</v>
+        <v>0.1162816279270515</v>
       </c>
       <c r="F2">
-        <v>0.4764098928200369</v>
+        <v>0.5193643288226966</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9714923350744158</v>
+        <v>0.3402561718116885</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.287174186457321</v>
+        <v>1.682421352132479</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.16841885884952</v>
+        <v>0.7180603288547331</v>
       </c>
       <c r="C3">
-        <v>0.5333479836565402</v>
+        <v>0.1833884566707127</v>
       </c>
       <c r="D3">
-        <v>0.03793634379182009</v>
+        <v>0.0150604587627825</v>
       </c>
       <c r="E3">
-        <v>0.1725761497272913</v>
+        <v>0.1113171366859547</v>
       </c>
       <c r="F3">
-        <v>0.434631576036935</v>
+        <v>0.5154294819496812</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8411327417321175</v>
+        <v>0.3024497049345456</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.198106337389049</v>
+        <v>1.683880131782246</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.971002228528391</v>
+        <v>0.6559750088289036</v>
       </c>
       <c r="C4">
-        <v>0.4911359676892744</v>
+        <v>0.1693662821470809</v>
       </c>
       <c r="D4">
-        <v>0.0351716945853866</v>
+        <v>0.01410483301238941</v>
       </c>
       <c r="E4">
-        <v>0.1579137412166887</v>
+        <v>0.1083944561521477</v>
       </c>
       <c r="F4">
-        <v>0.4104129417739344</v>
+        <v>0.5135291143290246</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7616806067225852</v>
+        <v>0.279281046064753</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.148180567778809</v>
+        <v>1.686508227068003</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.890616490981529</v>
+        <v>0.630640865163798</v>
       </c>
       <c r="C5">
-        <v>0.4739345433804942</v>
+        <v>0.1636350846412995</v>
       </c>
       <c r="D5">
-        <v>0.03404488631592528</v>
+        <v>0.01371441688199582</v>
       </c>
       <c r="E5">
-        <v>0.1520609614487114</v>
+        <v>0.1072346831978734</v>
       </c>
       <c r="F5">
-        <v>0.4008775377946776</v>
+        <v>0.5128838973985168</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7294260949910338</v>
+        <v>0.2698508697148867</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.128948530696221</v>
+        <v>1.688013158407699</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.877271292671878</v>
+        <v>0.6264321403124882</v>
       </c>
       <c r="C6">
-        <v>0.4710780932527427</v>
+        <v>0.1626824039160226</v>
       </c>
       <c r="D6">
-        <v>0.03385775914184563</v>
+        <v>0.01364952961485244</v>
       </c>
       <c r="E6">
-        <v>0.1510961089319096</v>
+        <v>0.1070439813154351</v>
       </c>
       <c r="F6">
-        <v>0.3993136095174989</v>
+        <v>0.5127845492536878</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7240769728145722</v>
+        <v>0.2682856754249485</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.125819921159717</v>
+        <v>1.688289212488286</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.969917909242213</v>
+        <v>0.6556334792267648</v>
       </c>
       <c r="C7">
-        <v>0.4909039904616463</v>
+        <v>0.1692890577926676</v>
       </c>
       <c r="D7">
-        <v>0.03515649928502995</v>
+        <v>0.01409957169603615</v>
       </c>
       <c r="E7">
-        <v>0.1578343311612969</v>
+        <v>0.1083786889746463</v>
       </c>
       <c r="F7">
-        <v>0.4102830260784316</v>
+        <v>0.5135198902073981</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7612451457414622</v>
+        <v>0.27915382187917</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.147916798763646</v>
+        <v>1.686526768222535</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.379399043808746</v>
+        <v>0.7841919542180449</v>
       </c>
       <c r="C8">
-        <v>0.5784119162115928</v>
+        <v>0.198292216557661</v>
       </c>
       <c r="D8">
-        <v>0.04088684151574995</v>
+        <v>0.01607673009343813</v>
       </c>
       <c r="E8">
-        <v>0.1886790220477153</v>
+        <v>0.1145436191279501</v>
       </c>
       <c r="F8">
-        <v>0.4616907410062225</v>
+        <v>0.5179002895122053</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9264062733471334</v>
+        <v>0.3272112240547926</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.255422807759118</v>
+        <v>1.682563773995298</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.187365141363955</v>
+        <v>1.035147002297492</v>
       </c>
       <c r="C9">
-        <v>0.7505735031485301</v>
+        <v>0.2546071468782145</v>
       </c>
       <c r="D9">
-        <v>0.05214822497107718</v>
+        <v>0.01992062790958471</v>
       </c>
       <c r="E9">
-        <v>0.2541407036658825</v>
+        <v>0.1276444601686606</v>
       </c>
       <c r="F9">
-        <v>0.5751588828699141</v>
+        <v>0.5306039136335343</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.256208035664159</v>
+        <v>0.4218107545084138</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.508108333126927</v>
+        <v>1.688615801237461</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.786825699346934</v>
+        <v>1.218788417262374</v>
       </c>
       <c r="C10">
-        <v>0.8779269677327477</v>
+        <v>0.2956286025206509</v>
       </c>
       <c r="D10">
-        <v>0.06046658905284374</v>
+        <v>0.02272324652935964</v>
       </c>
       <c r="E10">
-        <v>0.306304523621904</v>
+        <v>0.1379085384689702</v>
       </c>
       <c r="F10">
-        <v>0.6681683952806878</v>
+        <v>0.54247778529664</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.504029589029827</v>
+        <v>0.4915458647135438</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.725407323223124</v>
+        <v>1.701600527165283</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.061500025455416</v>
+        <v>1.302165886916782</v>
       </c>
       <c r="C11">
-        <v>0.9361822293326441</v>
+        <v>0.3142115150775453</v>
       </c>
       <c r="D11">
-        <v>0.0642681071370248</v>
+        <v>0.02399333549242044</v>
       </c>
       <c r="E11">
-        <v>0.3311765905602826</v>
+        <v>0.1427215359026732</v>
       </c>
       <c r="F11">
-        <v>0.7130448387002843</v>
+        <v>0.5484382938233523</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.618439175383656</v>
+        <v>0.5233242407134497</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.832631311026802</v>
+        <v>1.709385711006092</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.165859092549852</v>
+        <v>1.333714577942089</v>
       </c>
       <c r="C12">
-        <v>0.9583000725727402</v>
+        <v>0.3212369096483201</v>
       </c>
       <c r="D12">
-        <v>0.06571084921125703</v>
+        <v>0.02447356517656374</v>
       </c>
       <c r="E12">
-        <v>0.3407833224150849</v>
+        <v>0.1445651473780742</v>
       </c>
       <c r="F12">
-        <v>0.7304503761170196</v>
+        <v>0.5507763043676164</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.662047115303253</v>
+        <v>0.5353660005513348</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.874575823318878</v>
+        <v>1.712605735224457</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.143367074539412</v>
+        <v>1.326921114491995</v>
       </c>
       <c r="C13">
-        <v>0.9535338297906719</v>
+        <v>0.3197243843482909</v>
       </c>
       <c r="D13">
-        <v>0.06539997539202602</v>
+        <v>0.02437017185877721</v>
       </c>
       <c r="E13">
-        <v>0.3387055616068082</v>
+        <v>0.1441671515382623</v>
       </c>
       <c r="F13">
-        <v>0.7266827437959904</v>
+        <v>0.5502691660462062</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.652642029832478</v>
+        <v>0.5327722373072419</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.865480359004039</v>
+        <v>1.711900121390556</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.070078403524121</v>
+        <v>1.304761915839606</v>
       </c>
       <c r="C14">
-        <v>0.9380006478634755</v>
+        <v>0.3147897319554431</v>
       </c>
       <c r="D14">
-        <v>0.06438673430567121</v>
+        <v>0.02403285898760998</v>
       </c>
       <c r="E14">
-        <v>0.3319630239219151</v>
+        <v>0.1428727873517701</v>
       </c>
       <c r="F14">
-        <v>0.7144682905395285</v>
+        <v>0.5486290191895336</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.622020884913269</v>
+        <v>0.5243147636560508</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.836054403753536</v>
+        <v>1.709645163661889</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.025233945032085</v>
+        <v>1.291185532924317</v>
       </c>
       <c r="C15">
-        <v>0.9284940217341102</v>
+        <v>0.3117656005383651</v>
       </c>
       <c r="D15">
-        <v>0.06376653173919777</v>
+        <v>0.02382614975773123</v>
       </c>
       <c r="E15">
-        <v>0.3278582896704449</v>
+        <v>0.1420827016407031</v>
       </c>
       <c r="F15">
-        <v>0.7070415507079133</v>
+        <v>0.5476349318981448</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.603302811687527</v>
+        <v>0.5191353557944609</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.818209089304418</v>
+        <v>1.708299406551845</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.768919999557852</v>
+        <v>1.213336136799455</v>
       </c>
       <c r="C16">
-        <v>0.8741272857956801</v>
+        <v>0.2944125675467149</v>
       </c>
       <c r="D16">
-        <v>0.06021855854047686</v>
+        <v>0.02264014333565711</v>
       </c>
       <c r="E16">
-        <v>0.3047040550971332</v>
+        <v>0.1375969218825475</v>
       </c>
       <c r="F16">
-        <v>0.6652908219056286</v>
+        <v>0.5420995445361569</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.49658990503201</v>
+        <v>0.4894701897874683</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.718579912403072</v>
+        <v>1.701129701764216</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.61222803879491</v>
+        <v>1.165535675899775</v>
       </c>
       <c r="C17">
-        <v>0.8408653123849206</v>
+        <v>0.2837468334788866</v>
       </c>
       <c r="D17">
-        <v>0.05804692269423128</v>
+        <v>0.02191130663226204</v>
       </c>
       <c r="E17">
-        <v>0.2908085640853102</v>
+        <v>0.134882127026863</v>
       </c>
       <c r="F17">
-        <v>0.6403645926100268</v>
+        <v>0.5388473054654099</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.431582954015241</v>
+        <v>0.4712857867037599</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.659698962460283</v>
+        <v>1.697213723266003</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.522285008600079</v>
+        <v>1.138026947619039</v>
       </c>
       <c r="C18">
-        <v>0.821763409779237</v>
+        <v>0.2776048680875647</v>
       </c>
       <c r="D18">
-        <v>0.05679945294303934</v>
+        <v>0.02149164558428396</v>
       </c>
       <c r="E18">
-        <v>0.2829222095760429</v>
+        <v>0.1333341643495629</v>
       </c>
       <c r="F18">
-        <v>0.6262664252733003</v>
+        <v>0.5370292913402039</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.394347475357705</v>
+        <v>0.4608318252871584</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.6266114576961</v>
+        <v>1.69513804717019</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.491861324712943</v>
+        <v>1.128710398603857</v>
       </c>
       <c r="C19">
-        <v>0.815300565837731</v>
+        <v>0.275524057884013</v>
       </c>
       <c r="D19">
-        <v>0.05637733601150074</v>
+        <v>0.02134947860475478</v>
       </c>
       <c r="E19">
-        <v>0.2802695353691576</v>
+        <v>0.1328123613503607</v>
       </c>
       <c r="F19">
-        <v>0.621532788380037</v>
+        <v>0.5364227594858164</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.381765533487922</v>
+        <v>0.4572931914514839</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.615538460300826</v>
+        <v>1.694465549761162</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.628888896782996</v>
+        <v>1.170625695537638</v>
       </c>
       <c r="C20">
-        <v>0.8444029721250672</v>
+        <v>0.2848829788800629</v>
       </c>
       <c r="D20">
-        <v>0.05827792698576673</v>
+        <v>0.02198893969337234</v>
       </c>
       <c r="E20">
-        <v>0.2922766303803073</v>
+        <v>0.1351697202158846</v>
       </c>
       <c r="F20">
-        <v>0.6429930254159189</v>
+        <v>0.5391880655414099</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.438486737219435</v>
+        <v>0.4732210066173792</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.665885336444319</v>
+        <v>1.697612285663354</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.091595156272717</v>
+        <v>1.311271285800444</v>
       </c>
       <c r="C21">
-        <v>0.9425614519992394</v>
+        <v>0.3162394751710451</v>
       </c>
       <c r="D21">
-        <v>0.06468425541265788</v>
+        <v>0.02413195587920569</v>
       </c>
       <c r="E21">
-        <v>0.3339381592224839</v>
+        <v>0.1432523998165181</v>
       </c>
       <c r="F21">
-        <v>0.718044434849503</v>
+        <v>0.5491085705602785</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.631007001307367</v>
+        <v>0.526798712166098</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.84465996822243</v>
+        <v>1.710300104299336</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.396049265857812</v>
+        <v>1.403047656824413</v>
       </c>
       <c r="C22">
-        <v>1.007057057206481</v>
+        <v>0.3366652746546492</v>
       </c>
       <c r="D22">
-        <v>0.06889012454195154</v>
+        <v>0.0255282988190757</v>
       </c>
       <c r="E22">
-        <v>0.3622764424804998</v>
+        <v>0.1486576641926263</v>
       </c>
       <c r="F22">
-        <v>0.7695179066547269</v>
+        <v>0.5560639487228229</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.758505621455726</v>
+        <v>0.5618613458506303</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.969389477186525</v>
+        <v>1.720178275538245</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.233347008743976</v>
+        <v>1.35407843681287</v>
       </c>
       <c r="C23">
-        <v>0.9725989829244952</v>
+        <v>0.3257699272813852</v>
       </c>
       <c r="D23">
-        <v>0.06664339315287293</v>
+        <v>0.02478344224559947</v>
       </c>
       <c r="E23">
-        <v>0.3470416170279336</v>
+        <v>0.1457614227133703</v>
       </c>
       <c r="F23">
-        <v>0.7418086580026824</v>
+        <v>0.5523083993855238</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.690288649141749</v>
+        <v>0.5431435036798007</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.902048437059733</v>
+        <v>1.714760389128202</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.621356087462914</v>
+        <v>1.168324583561343</v>
       </c>
       <c r="C24">
-        <v>0.8428035320795288</v>
+        <v>0.2843693589588838</v>
       </c>
       <c r="D24">
-        <v>0.0581734867796655</v>
+        <v>0.02195384378720178</v>
       </c>
       <c r="E24">
-        <v>0.291612600593929</v>
+        <v>0.1350396594651784</v>
       </c>
       <c r="F24">
-        <v>0.6418039907155872</v>
+        <v>0.5390338467764479</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.435365110535869</v>
+        <v>0.4723460921623399</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.663086107475152</v>
+        <v>1.697431548524634</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.967980209075904</v>
+        <v>0.9673836328364018</v>
       </c>
       <c r="C25">
-        <v>0.70388801974795</v>
+        <v>0.239433658964316</v>
       </c>
       <c r="D25">
-        <v>0.04909623628461901</v>
+        <v>0.01888444193986061</v>
       </c>
       <c r="E25">
-        <v>0.2357977348421016</v>
+        <v>0.1239897549793767</v>
       </c>
       <c r="F25">
-        <v>0.5429177541822625</v>
+        <v>0.5267234622929706</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.166167232844941</v>
+        <v>0.3961792111008577</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.434665084700129</v>
+        <v>1.685487169080318</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_43/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8189485623975088</v>
+        <v>2.490588410065129</v>
       </c>
       <c r="C2">
-        <v>0.2061131566122185</v>
+        <v>0.6021421383897518</v>
       </c>
       <c r="D2">
-        <v>0.01661023264762918</v>
+        <v>0.04244011435424966</v>
       </c>
       <c r="E2">
-        <v>0.1162816279270515</v>
+        <v>0.1973378912769519</v>
       </c>
       <c r="F2">
-        <v>0.5193643288226966</v>
+        <v>0.4764098928200369</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3402561718116885</v>
+        <v>0.9714923350744158</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.682421352132479</v>
+        <v>1.287174186457236</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7180603288547331</v>
+        <v>2.168418858849464</v>
       </c>
       <c r="C3">
-        <v>0.1833884566707127</v>
+        <v>0.5333479836565971</v>
       </c>
       <c r="D3">
-        <v>0.0150604587627825</v>
+        <v>0.03793634379182009</v>
       </c>
       <c r="E3">
-        <v>0.1113171366859547</v>
+        <v>0.1725761497272629</v>
       </c>
       <c r="F3">
-        <v>0.5154294819496812</v>
+        <v>0.4346315760369208</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3024497049345456</v>
+        <v>0.8411327417321104</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.683880131782246</v>
+        <v>1.198106337389078</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6559750088289036</v>
+        <v>1.971002228528505</v>
       </c>
       <c r="C4">
-        <v>0.1693662821470809</v>
+        <v>0.4911359676892744</v>
       </c>
       <c r="D4">
-        <v>0.01410483301238941</v>
+        <v>0.03517169458542924</v>
       </c>
       <c r="E4">
-        <v>0.1083944561521477</v>
+        <v>0.1579137412166816</v>
       </c>
       <c r="F4">
-        <v>0.5135291143290246</v>
+        <v>0.4104129417739344</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.279281046064753</v>
+        <v>0.761680606722571</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.686508227068003</v>
+        <v>1.148180567778724</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.630640865163798</v>
+        <v>1.8906164909815</v>
       </c>
       <c r="C5">
-        <v>0.1636350846412995</v>
+        <v>0.4739345433807785</v>
       </c>
       <c r="D5">
-        <v>0.01371441688199582</v>
+        <v>0.03404488631615266</v>
       </c>
       <c r="E5">
-        <v>0.1072346831978734</v>
+        <v>0.1520609614487185</v>
       </c>
       <c r="F5">
-        <v>0.5128838973985168</v>
+        <v>0.4008775377946918</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2698508697148867</v>
+        <v>0.7294260949910623</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.688013158407699</v>
+        <v>1.128948530696164</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6264321403124882</v>
+        <v>1.877271292671878</v>
       </c>
       <c r="C6">
-        <v>0.1626824039160226</v>
+        <v>0.4710780932527427</v>
       </c>
       <c r="D6">
-        <v>0.01364952961485244</v>
+        <v>0.03385775914173905</v>
       </c>
       <c r="E6">
-        <v>0.1070439813154351</v>
+        <v>0.1510961089319096</v>
       </c>
       <c r="F6">
-        <v>0.5127845492536878</v>
+        <v>0.3993136095174847</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2682856754249485</v>
+        <v>0.7240769728145722</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.688289212488286</v>
+        <v>1.125819921159746</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6556334792267648</v>
+        <v>1.969917909242241</v>
       </c>
       <c r="C7">
-        <v>0.1692890577926676</v>
+        <v>0.4909039904618737</v>
       </c>
       <c r="D7">
-        <v>0.01409957169603615</v>
+        <v>0.03515649928495179</v>
       </c>
       <c r="E7">
-        <v>0.1083786889746463</v>
+        <v>0.1578343311613253</v>
       </c>
       <c r="F7">
-        <v>0.5135198902073981</v>
+        <v>0.4102830260784458</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.27915382187917</v>
+        <v>0.7612451457414764</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.686526768222535</v>
+        <v>1.147916798763589</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7841919542180449</v>
+        <v>2.379399043808746</v>
       </c>
       <c r="C8">
-        <v>0.198292216557661</v>
+        <v>0.5784119162113939</v>
       </c>
       <c r="D8">
-        <v>0.01607673009343813</v>
+        <v>0.040886841515551</v>
       </c>
       <c r="E8">
-        <v>0.1145436191279501</v>
+        <v>0.1886790220477153</v>
       </c>
       <c r="F8">
-        <v>0.5179002895122053</v>
+        <v>0.4616907410062225</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3272112240547926</v>
+        <v>0.9264062733471476</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.682563773995298</v>
+        <v>1.255422807759118</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.035147002297492</v>
+        <v>3.187365141363841</v>
       </c>
       <c r="C9">
-        <v>0.2546071468782145</v>
+        <v>0.7505735031485301</v>
       </c>
       <c r="D9">
-        <v>0.01992062790958471</v>
+        <v>0.05214822497124061</v>
       </c>
       <c r="E9">
-        <v>0.1276444601686606</v>
+        <v>0.2541407036658754</v>
       </c>
       <c r="F9">
-        <v>0.5306039136335343</v>
+        <v>0.5751588828698999</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4218107545084138</v>
+        <v>1.256208035664187</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.688615801237461</v>
+        <v>1.508108333126984</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.218788417262374</v>
+        <v>3.786825699347048</v>
       </c>
       <c r="C10">
-        <v>0.2956286025206509</v>
+        <v>0.8779269677327761</v>
       </c>
       <c r="D10">
-        <v>0.02272324652935964</v>
+        <v>0.06046658905290769</v>
       </c>
       <c r="E10">
-        <v>0.1379085384689702</v>
+        <v>0.3063045236218898</v>
       </c>
       <c r="F10">
-        <v>0.54247778529664</v>
+        <v>0.6681683952806878</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4915458647135438</v>
+        <v>1.504029589029827</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.701600527165283</v>
+        <v>1.725407323223152</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.302165886916782</v>
+        <v>4.061500025455302</v>
       </c>
       <c r="C11">
-        <v>0.3142115150775453</v>
+        <v>0.9361822293327009</v>
       </c>
       <c r="D11">
-        <v>0.02399333549242044</v>
+        <v>0.06426810713668374</v>
       </c>
       <c r="E11">
-        <v>0.1427215359026732</v>
+        <v>0.3311765905603039</v>
       </c>
       <c r="F11">
-        <v>0.5484382938233523</v>
+        <v>0.7130448387002701</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5233242407134497</v>
+        <v>1.618439175383671</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.709385711006092</v>
+        <v>1.832631311026773</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.333714577942089</v>
+        <v>4.165859092549908</v>
       </c>
       <c r="C12">
-        <v>0.3212369096483201</v>
+        <v>0.958300072572797</v>
       </c>
       <c r="D12">
-        <v>0.02447356517656374</v>
+        <v>0.06571084921132098</v>
       </c>
       <c r="E12">
-        <v>0.1445651473780742</v>
+        <v>0.3407833224150494</v>
       </c>
       <c r="F12">
-        <v>0.5507763043676164</v>
+        <v>0.7304503761170338</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5353660005513348</v>
+        <v>1.662047115303281</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.712605735224457</v>
+        <v>1.874575823318878</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.326921114491995</v>
+        <v>4.143367074539242</v>
       </c>
       <c r="C13">
-        <v>0.3197243843482909</v>
+        <v>0.953533829790473</v>
       </c>
       <c r="D13">
-        <v>0.02437017185877721</v>
+        <v>0.0653999753917418</v>
       </c>
       <c r="E13">
-        <v>0.1441671515382623</v>
+        <v>0.3387055616068082</v>
       </c>
       <c r="F13">
-        <v>0.5502691660462062</v>
+        <v>0.7266827437959904</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5327722373072419</v>
+        <v>1.652642029832464</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.711900121390556</v>
+        <v>1.865480359004039</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.304761915839606</v>
+        <v>4.070078403524064</v>
       </c>
       <c r="C14">
-        <v>0.3147897319554431</v>
+        <v>0.9380006478635323</v>
       </c>
       <c r="D14">
-        <v>0.02403285898760998</v>
+        <v>0.06438673430559305</v>
       </c>
       <c r="E14">
-        <v>0.1428727873517701</v>
+        <v>0.3319630239219364</v>
       </c>
       <c r="F14">
-        <v>0.5486290191895336</v>
+        <v>0.714468290539557</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5243147636560508</v>
+        <v>1.622020884913269</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.709645163661889</v>
+        <v>1.836054403753593</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.291185532924317</v>
+        <v>4.025233945032028</v>
       </c>
       <c r="C15">
-        <v>0.3117656005383651</v>
+        <v>0.928494021734366</v>
       </c>
       <c r="D15">
-        <v>0.02382614975773123</v>
+        <v>0.06376653173919067</v>
       </c>
       <c r="E15">
-        <v>0.1420827016407031</v>
+        <v>0.3278582896704236</v>
       </c>
       <c r="F15">
-        <v>0.5476349318981448</v>
+        <v>0.7070415507079133</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5191353557944609</v>
+        <v>1.603302811687513</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.708299406551845</v>
+        <v>1.818209089304418</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.213336136799455</v>
+        <v>3.768919999557852</v>
       </c>
       <c r="C16">
-        <v>0.2944125675467149</v>
+        <v>0.8741272857954527</v>
       </c>
       <c r="D16">
-        <v>0.02264014333565711</v>
+        <v>0.06021855854048397</v>
       </c>
       <c r="E16">
-        <v>0.1375969218825475</v>
+        <v>0.3047040550971403</v>
       </c>
       <c r="F16">
-        <v>0.5420995445361569</v>
+        <v>0.6652908219056286</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4894701897874683</v>
+        <v>1.496589905031982</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.701129701764216</v>
+        <v>1.718579912403072</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.165535675899775</v>
+        <v>3.61222803879491</v>
       </c>
       <c r="C17">
-        <v>0.2837468334788866</v>
+        <v>0.8408653123847216</v>
       </c>
       <c r="D17">
-        <v>0.02191130663226204</v>
+        <v>0.05804692269423128</v>
       </c>
       <c r="E17">
-        <v>0.134882127026863</v>
+        <v>0.2908085640853244</v>
       </c>
       <c r="F17">
-        <v>0.5388473054654099</v>
+        <v>0.6403645926099983</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4712857867037599</v>
+        <v>1.431582954015255</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.697213723266003</v>
+        <v>1.659698962460283</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.138026947619039</v>
+        <v>3.522285008599965</v>
       </c>
       <c r="C18">
-        <v>0.2776048680875647</v>
+        <v>0.8217634097790665</v>
       </c>
       <c r="D18">
-        <v>0.02149164558428396</v>
+        <v>0.05679945294310329</v>
       </c>
       <c r="E18">
-        <v>0.1333341643495629</v>
+        <v>0.2829222095760642</v>
       </c>
       <c r="F18">
-        <v>0.5370292913402039</v>
+        <v>0.6262664252733003</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4608318252871584</v>
+        <v>1.394347475357691</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.69513804717019</v>
+        <v>1.626611457696072</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.128710398603857</v>
+        <v>3.491861324713</v>
       </c>
       <c r="C19">
-        <v>0.275524057884013</v>
+        <v>0.8153005658377595</v>
       </c>
       <c r="D19">
-        <v>0.02134947860475478</v>
+        <v>0.05637733601138706</v>
       </c>
       <c r="E19">
-        <v>0.1328123613503607</v>
+        <v>0.2802695353691576</v>
       </c>
       <c r="F19">
-        <v>0.5364227594858164</v>
+        <v>0.6215327883800512</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4572931914514839</v>
+        <v>1.381765533487922</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.694465549761162</v>
+        <v>1.615538460300854</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.170625695537638</v>
+        <v>3.62888889678311</v>
       </c>
       <c r="C20">
-        <v>0.2848829788800629</v>
+        <v>0.8444029721250956</v>
       </c>
       <c r="D20">
-        <v>0.02198893969337234</v>
+        <v>0.05827792698588041</v>
       </c>
       <c r="E20">
-        <v>0.1351697202158846</v>
+        <v>0.292276630380357</v>
       </c>
       <c r="F20">
-        <v>0.5391880655414099</v>
+        <v>0.6429930254159189</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4732210066173792</v>
+        <v>1.438486737219463</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.697612285663354</v>
+        <v>1.665885336444319</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.311271285800444</v>
+        <v>4.09159515627266</v>
       </c>
       <c r="C21">
-        <v>0.3162394751710451</v>
+        <v>0.9425614519990404</v>
       </c>
       <c r="D21">
-        <v>0.02413195587920569</v>
+        <v>0.06468425541261524</v>
       </c>
       <c r="E21">
-        <v>0.1432523998165181</v>
+        <v>0.3339381592224484</v>
       </c>
       <c r="F21">
-        <v>0.5491085705602785</v>
+        <v>0.718044434849503</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.526798712166098</v>
+        <v>1.631007001307381</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.710300104299336</v>
+        <v>1.844659968222459</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.403047656824413</v>
+        <v>4.396049265857812</v>
       </c>
       <c r="C22">
-        <v>0.3366652746546492</v>
+        <v>1.007057057206424</v>
       </c>
       <c r="D22">
-        <v>0.0255282988190757</v>
+        <v>0.06889012454194443</v>
       </c>
       <c r="E22">
-        <v>0.1486576641926263</v>
+        <v>0.3622764424805069</v>
       </c>
       <c r="F22">
-        <v>0.5560639487228229</v>
+        <v>0.7695179066547126</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5618613458506303</v>
+        <v>1.75850562145574</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.720178275538245</v>
+        <v>1.969389477186525</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.35407843681287</v>
+        <v>4.233347008744033</v>
       </c>
       <c r="C23">
-        <v>0.3257699272813852</v>
+        <v>0.9725989829246942</v>
       </c>
       <c r="D23">
-        <v>0.02478344224559947</v>
+        <v>0.06664339315287293</v>
       </c>
       <c r="E23">
-        <v>0.1457614227133703</v>
+        <v>0.347041617027962</v>
       </c>
       <c r="F23">
-        <v>0.5523083993855238</v>
+        <v>0.7418086580026824</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5431435036798007</v>
+        <v>1.690288649141749</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.714760389128202</v>
+        <v>1.902048437059705</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.168324583561343</v>
+        <v>3.621356087462971</v>
       </c>
       <c r="C24">
-        <v>0.2843693589588838</v>
+        <v>0.8428035320796141</v>
       </c>
       <c r="D24">
-        <v>0.02195384378720178</v>
+        <v>0.0581734867796655</v>
       </c>
       <c r="E24">
-        <v>0.1350396594651784</v>
+        <v>0.2916126005939148</v>
       </c>
       <c r="F24">
-        <v>0.5390338467764479</v>
+        <v>0.6418039907156015</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4723460921623399</v>
+        <v>1.435365110535884</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.697431548524634</v>
+        <v>1.663086107475209</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9673836328364018</v>
+        <v>2.967980209076075</v>
       </c>
       <c r="C25">
-        <v>0.239433658964316</v>
+        <v>0.7038880197476658</v>
       </c>
       <c r="D25">
-        <v>0.01888444193986061</v>
+        <v>0.04909623628450532</v>
       </c>
       <c r="E25">
-        <v>0.1239897549793767</v>
+        <v>0.2357977348421088</v>
       </c>
       <c r="F25">
-        <v>0.5267234622929706</v>
+        <v>0.5429177541822909</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3961792111008577</v>
+        <v>1.166167232844927</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.685487169080318</v>
+        <v>1.434665084700129</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.490588410065129</v>
+        <v>3.2621856869917</v>
       </c>
       <c r="C2">
-        <v>0.6021421383897518</v>
+        <v>0.7908174557828715</v>
       </c>
       <c r="D2">
-        <v>0.04244011435424966</v>
+        <v>0.008166549461627426</v>
       </c>
       <c r="E2">
-        <v>0.1973378912769519</v>
+        <v>0.02136377268401723</v>
       </c>
       <c r="F2">
-        <v>0.4764098928200369</v>
+        <v>2.245731452558701</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0.01528204648894249</v>
+      </c>
+      <c r="I2">
+        <v>0.01437144798955448</v>
+      </c>
+      <c r="J2">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.201450430960342</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0481356593962925</v>
       </c>
       <c r="M2">
-        <v>0.9714923350744158</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2173357664661637</v>
       </c>
       <c r="O2">
-        <v>1.287174186457236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5675783302764117</v>
+      </c>
+      <c r="P2">
+        <v>1.281340209118383</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.168418858849464</v>
+        <v>2.859216988358924</v>
       </c>
       <c r="C3">
-        <v>0.5333479836565971</v>
+        <v>0.6857648690597955</v>
       </c>
       <c r="D3">
-        <v>0.03793634379182009</v>
+        <v>0.006879715165464262</v>
       </c>
       <c r="E3">
-        <v>0.1725761497272629</v>
+        <v>0.01896530043806965</v>
       </c>
       <c r="F3">
-        <v>0.4346315760369208</v>
+        <v>2.090884938329253</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.02058441098920261</v>
+      </c>
+      <c r="I3">
+        <v>0.01973652184709973</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.137080828745788</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.04373969726033344</v>
       </c>
       <c r="M3">
-        <v>0.8411327417321104</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1945817372292282</v>
       </c>
       <c r="O3">
-        <v>1.198106337389078</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4996316134520313</v>
+      </c>
+      <c r="P3">
+        <v>1.309472335185767</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.971002228528505</v>
+        <v>2.611983766038804</v>
       </c>
       <c r="C4">
-        <v>0.4911359676892744</v>
+        <v>0.622022399297208</v>
       </c>
       <c r="D4">
-        <v>0.03517169458542924</v>
+        <v>0.006106048986730173</v>
       </c>
       <c r="E4">
-        <v>0.1579137412166816</v>
+        <v>0.01751890900333208</v>
       </c>
       <c r="F4">
-        <v>0.4104129417739344</v>
+        <v>1.996726679578956</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.02435058541163482</v>
+      </c>
+      <c r="I4">
+        <v>0.02361683283023019</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.097840615139589</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.04106304214644574</v>
       </c>
       <c r="M4">
-        <v>0.761680606722571</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1806975050613602</v>
       </c>
       <c r="O4">
-        <v>1.148180567778724</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4579960156614362</v>
+      </c>
+      <c r="P4">
+        <v>1.32701414646624</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.8906164909815</v>
+        <v>2.509235416245815</v>
       </c>
       <c r="C5">
-        <v>0.4739345433807785</v>
+        <v>0.5965203952010825</v>
       </c>
       <c r="D5">
-        <v>0.03404488631615266</v>
+        <v>0.005762378437511373</v>
       </c>
       <c r="E5">
-        <v>0.1520609614487185</v>
+        <v>0.01693007024727322</v>
       </c>
       <c r="F5">
-        <v>0.4008775377946918</v>
+        <v>1.956679318786527</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.02602031064615384</v>
+      </c>
+      <c r="I5">
+        <v>0.0254407675209678</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.080629704094889</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.03997424044345976</v>
       </c>
       <c r="M5">
-        <v>0.7294260949910623</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.175170306577904</v>
       </c>
       <c r="O5">
-        <v>1.128948530696164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4408525947572173</v>
+      </c>
+      <c r="P5">
+        <v>1.333455004599692</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.877271292671878</v>
+        <v>2.48971190315001</v>
       </c>
       <c r="C6">
-        <v>0.4710780932527427</v>
+        <v>0.5926684412195016</v>
       </c>
       <c r="D6">
-        <v>0.03385775914173905</v>
+        <v>0.005666926453647747</v>
       </c>
       <c r="E6">
-        <v>0.1510961089319096</v>
+        <v>0.01682694580563737</v>
       </c>
       <c r="F6">
-        <v>0.3993136095174847</v>
+        <v>1.947741435377623</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.02631999604123259</v>
+      </c>
+      <c r="I6">
+        <v>0.02588400707189376</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.076210580729686</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.03979183620145932</v>
       </c>
       <c r="M6">
-        <v>0.7240769728145722</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1743908165115258</v>
       </c>
       <c r="O6">
-        <v>1.125819921159746</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4377725323554529</v>
+      </c>
+      <c r="P6">
+        <v>1.333588959541785</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.969917909242241</v>
+        <v>2.603846319209936</v>
       </c>
       <c r="C7">
-        <v>0.4909039904618737</v>
+        <v>0.622698213372388</v>
       </c>
       <c r="D7">
-        <v>0.03515649928495179</v>
+        <v>0.005995462284165143</v>
       </c>
       <c r="E7">
-        <v>0.1578343311613253</v>
+        <v>0.01749545534654562</v>
       </c>
       <c r="F7">
-        <v>0.4102830260784458</v>
+        <v>1.989897542268849</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.02441189295383328</v>
+      </c>
+      <c r="I7">
+        <v>0.02398108215800132</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.093330407639137</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.04104346370681355</v>
       </c>
       <c r="M7">
-        <v>0.7612451457414764</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1809987013777814</v>
       </c>
       <c r="O7">
-        <v>1.147916798763589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4571227285135109</v>
+      </c>
+      <c r="P7">
+        <v>1.324551815517189</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.379399043808746</v>
+        <v>3.114129244591766</v>
       </c>
       <c r="C8">
-        <v>0.5784119162113939</v>
+        <v>0.7557807703156527</v>
       </c>
       <c r="D8">
-        <v>0.040886841515551</v>
+        <v>0.007576839958275627</v>
       </c>
       <c r="E8">
-        <v>0.1886790220477153</v>
+        <v>0.02050927215384135</v>
       </c>
       <c r="F8">
-        <v>0.4616907410062225</v>
+        <v>2.183782330373759</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.01704272723452915</v>
+      </c>
+      <c r="I8">
+        <v>0.01649303310112504</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.173514395167729</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.04660704367337054</v>
       </c>
       <c r="M8">
-        <v>0.9264062733471476</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2099721919425335</v>
       </c>
       <c r="O8">
-        <v>1.255422807759118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5432676366845044</v>
+      </c>
+      <c r="P8">
+        <v>1.287689114329019</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.187365141363841</v>
+        <v>4.130346557503628</v>
       </c>
       <c r="C9">
-        <v>0.7505735031485301</v>
+        <v>1.022029079466165</v>
       </c>
       <c r="D9">
-        <v>0.05214822497124061</v>
+        <v>0.01104554566241234</v>
       </c>
       <c r="E9">
-        <v>0.2541407036658754</v>
+        <v>0.02672617445156966</v>
       </c>
       <c r="F9">
-        <v>0.5751588828698999</v>
+        <v>2.583934799420732</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.006869211646542694</v>
+      </c>
+      <c r="I9">
+        <v>0.006290196709519691</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.341246631214531</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.05781104853318197</v>
       </c>
       <c r="M9">
-        <v>1.256208035664187</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2669477600058627</v>
       </c>
       <c r="O9">
-        <v>1.508108333126984</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7143511348729064</v>
+      </c>
+      <c r="P9">
+        <v>1.2221625826813</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.786825699347048</v>
+        <v>4.850396214617035</v>
       </c>
       <c r="C10">
-        <v>0.8779269677327761</v>
+        <v>1.220091609067708</v>
       </c>
       <c r="D10">
-        <v>0.06046658905290769</v>
+        <v>0.01381717413361727</v>
       </c>
       <c r="E10">
-        <v>0.3063045236218898</v>
+        <v>0.03209310602693805</v>
       </c>
       <c r="F10">
-        <v>0.6681683952806878</v>
+        <v>2.846865658806706</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.002782255309953907</v>
+      </c>
+      <c r="I10">
+        <v>0.002528522387420296</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.445972598602879</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.06702420559003031</v>
       </c>
       <c r="M10">
-        <v>1.504029589029827</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3009231080797292</v>
       </c>
       <c r="O10">
-        <v>1.725407323223152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8312304144651321</v>
+      </c>
+      <c r="P10">
+        <v>1.164107962167975</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.061500025455302</v>
+        <v>4.924602673799143</v>
       </c>
       <c r="C11">
-        <v>0.9361822293327009</v>
+        <v>1.277957250434213</v>
       </c>
       <c r="D11">
-        <v>0.06426810713668374</v>
+        <v>0.01587517892461321</v>
       </c>
       <c r="E11">
-        <v>0.3311765905603039</v>
+        <v>0.04068911255460073</v>
       </c>
       <c r="F11">
-        <v>0.7130448387002701</v>
+        <v>2.656660431288984</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.02100019500756289</v>
+      </c>
+      <c r="I11">
+        <v>0.002469037272257779</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.326546575987209</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08130731130555091</v>
       </c>
       <c r="M11">
-        <v>1.618439175383671</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2448240855572266</v>
       </c>
       <c r="O11">
-        <v>1.832631311026773</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.8008902797653761</v>
+      </c>
+      <c r="P11">
+        <v>1.055084320551309</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.165859092549908</v>
+        <v>4.842528122065573</v>
       </c>
       <c r="C12">
-        <v>0.958300072572797</v>
+        <v>1.282074392729783</v>
       </c>
       <c r="D12">
-        <v>0.06571084921132098</v>
+        <v>0.01722261011786941</v>
       </c>
       <c r="E12">
-        <v>0.3407833224150494</v>
+        <v>0.0488183755723437</v>
       </c>
       <c r="F12">
-        <v>0.7304503761170338</v>
+        <v>2.454538374746789</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.05980751891654279</v>
+      </c>
+      <c r="I12">
+        <v>0.002431127751950868</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.214012124172612</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09717652753477068</v>
       </c>
       <c r="M12">
-        <v>1.662047115303281</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1954430513011829</v>
       </c>
       <c r="O12">
-        <v>1.874575823318878</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7519734545380601</v>
+      </c>
+      <c r="P12">
+        <v>0.9923120297047063</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.143367074539242</v>
+        <v>4.625084697750083</v>
       </c>
       <c r="C13">
-        <v>0.953533829790473</v>
+        <v>1.246349066306038</v>
       </c>
       <c r="D13">
-        <v>0.0653999753917418</v>
+        <v>0.01788059376723083</v>
       </c>
       <c r="E13">
-        <v>0.3387055616068082</v>
+        <v>0.05688281744656365</v>
       </c>
       <c r="F13">
-        <v>0.7266827437959904</v>
+        <v>2.22226641001032</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1161337432829015</v>
+      </c>
+      <c r="I13">
+        <v>0.002781621579438287</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.09383648446186</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1148850385211801</v>
       </c>
       <c r="M13">
-        <v>1.652642029832464</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1493375638175678</v>
       </c>
       <c r="O13">
-        <v>1.865480359004039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.685328863750307</v>
+      </c>
+      <c r="P13">
+        <v>0.9568180190752091</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.070078403524064</v>
+        <v>4.410916371007715</v>
       </c>
       <c r="C14">
-        <v>0.9380006478635323</v>
+        <v>1.20383140663057</v>
       </c>
       <c r="D14">
-        <v>0.06438673430559305</v>
+        <v>0.01798587089217563</v>
       </c>
       <c r="E14">
-        <v>0.3319630239219364</v>
+        <v>0.0626752985337049</v>
       </c>
       <c r="F14">
-        <v>0.714468290539557</v>
+        <v>2.046668414541159</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1661302691870645</v>
+      </c>
+      <c r="I14">
+        <v>0.00337367999301641</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.006497447331569</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1287324755299792</v>
       </c>
       <c r="M14">
-        <v>1.622020884913269</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1197345756826707</v>
       </c>
       <c r="O14">
-        <v>1.836054403753593</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6310853746882259</v>
+      </c>
+      <c r="P14">
+        <v>0.9455647030032228</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.025233945032028</v>
+        <v>4.328176544500991</v>
       </c>
       <c r="C15">
-        <v>0.928494021734366</v>
+        <v>1.185599567978784</v>
       </c>
       <c r="D15">
-        <v>0.06376653173919067</v>
+        <v>0.01780758488029122</v>
       </c>
       <c r="E15">
-        <v>0.3278582896704236</v>
+        <v>0.06377685380107323</v>
       </c>
       <c r="F15">
-        <v>0.7070415507079133</v>
+        <v>1.995304762945949</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1789583780046087</v>
+      </c>
+      <c r="I15">
+        <v>0.003777977486013384</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.9819945259843905</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1317413202409057</v>
       </c>
       <c r="M15">
-        <v>1.603302811687513</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1126364803833511</v>
       </c>
       <c r="O15">
-        <v>1.818209089304418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.6139671327383667</v>
+      </c>
+      <c r="P15">
+        <v>0.9465833022064642</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.768919999557852</v>
+        <v>4.063487564979198</v>
       </c>
       <c r="C16">
-        <v>0.8741272857954527</v>
+        <v>1.108039345260465</v>
       </c>
       <c r="D16">
-        <v>0.06021855854048397</v>
+        <v>0.01629408640996388</v>
       </c>
       <c r="E16">
-        <v>0.3047040550971403</v>
+        <v>0.05944267030169925</v>
       </c>
       <c r="F16">
-        <v>0.6652908219056286</v>
+        <v>1.930090336398649</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1679071551430837</v>
+      </c>
+      <c r="I16">
+        <v>0.005338218262715522</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.9611197877514002</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1235229966244091</v>
       </c>
       <c r="M16">
-        <v>1.496589905031982</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1090991930506462</v>
       </c>
       <c r="O16">
-        <v>1.718579912403072</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5788325010721636</v>
+      </c>
+      <c r="P16">
+        <v>0.9757315923230072</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.61222803879491</v>
+        <v>3.973550945238344</v>
       </c>
       <c r="C17">
-        <v>0.8408653123847216</v>
+        <v>1.071406901642774</v>
       </c>
       <c r="D17">
-        <v>0.05804692269423128</v>
+        <v>0.01509773448946561</v>
       </c>
       <c r="E17">
-        <v>0.2908085640853244</v>
+        <v>0.0529461223942338</v>
       </c>
       <c r="F17">
-        <v>0.6403645926099983</v>
+        <v>1.971991611185842</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1311279316255423</v>
+      </c>
+      <c r="I17">
+        <v>0.006286761917679407</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9906221787433438</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.109496589366934</v>
       </c>
       <c r="M17">
-        <v>1.431582954015255</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1213429425094432</v>
       </c>
       <c r="O17">
-        <v>1.659698962460283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5802796470524711</v>
+      </c>
+      <c r="P17">
+        <v>1.003228340434672</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.522285008599965</v>
+        <v>4.028007461114044</v>
       </c>
       <c r="C18">
-        <v>0.8217634097790665</v>
+        <v>1.064229201854857</v>
       </c>
       <c r="D18">
-        <v>0.05679945294310329</v>
+        <v>0.01413009563157175</v>
       </c>
       <c r="E18">
-        <v>0.2829222095760642</v>
+        <v>0.04475791088857406</v>
       </c>
       <c r="F18">
-        <v>0.6262664252733003</v>
+        <v>2.118206371464083</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07849653276698376</v>
+      </c>
+      <c r="I18">
+        <v>0.006246127846194938</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.072075461381878</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09144127368871224</v>
       </c>
       <c r="M18">
-        <v>1.394347475357691</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1513854525827512</v>
       </c>
       <c r="O18">
-        <v>1.626611457696072</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.6143054821897209</v>
+      </c>
+      <c r="P18">
+        <v>1.039874616469545</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.491861324713</v>
+        <v>4.182295083209056</v>
       </c>
       <c r="C19">
-        <v>0.8153005658377595</v>
+        <v>1.082922782136961</v>
       </c>
       <c r="D19">
-        <v>0.05637733601138706</v>
+        <v>0.01319017065481631</v>
       </c>
       <c r="E19">
-        <v>0.2802695353691576</v>
+        <v>0.03704756454114921</v>
       </c>
       <c r="F19">
-        <v>0.6215327883800512</v>
+        <v>2.333600182500518</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.0325685448247981</v>
+      </c>
+      <c r="I19">
+        <v>0.005949863280450884</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.186894217314943</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.07548258236927907</v>
       </c>
       <c r="M19">
-        <v>1.381765533487922</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1988792710339169</v>
       </c>
       <c r="O19">
-        <v>1.615538460300854</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6721779285225793</v>
+      </c>
+      <c r="P19">
+        <v>1.088940050820476</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.62888889678311</v>
+        <v>4.637878386770183</v>
       </c>
       <c r="C20">
-        <v>0.8444029721250956</v>
+        <v>1.170682483254552</v>
       </c>
       <c r="D20">
-        <v>0.05827792698588041</v>
+        <v>0.01273649427429646</v>
       </c>
       <c r="E20">
-        <v>0.292276630380357</v>
+        <v>0.03062292068980543</v>
       </c>
       <c r="F20">
-        <v>0.6429930254159189</v>
+        <v>2.756055631082916</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.003676359078839564</v>
+      </c>
+      <c r="I20">
+        <v>0.004146708192599213</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.40411270896962</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06458270396358046</v>
       </c>
       <c r="M20">
-        <v>1.438486737219463</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2927857587255289</v>
       </c>
       <c r="O20">
-        <v>1.665885336444319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.7979813418174544</v>
+      </c>
+      <c r="P20">
+        <v>1.171541598840001</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.09159515627266</v>
+        <v>5.240026008128552</v>
       </c>
       <c r="C21">
-        <v>0.9425614519990404</v>
+        <v>1.330573560952359</v>
       </c>
       <c r="D21">
-        <v>0.06468425541261524</v>
+        <v>0.01485509248996664</v>
       </c>
       <c r="E21">
-        <v>0.3339381592224484</v>
+        <v>0.03405123278675326</v>
       </c>
       <c r="F21">
-        <v>0.718044434849503</v>
+        <v>3.019347083465448</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.001110343608963449</v>
+      </c>
+      <c r="I21">
+        <v>0.002191225295825383</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.517639007900797</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.07079914217529293</v>
       </c>
       <c r="M21">
-        <v>1.631007001307381</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3325314753169692</v>
       </c>
       <c r="O21">
-        <v>1.844659968222459</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9033490214425441</v>
+      </c>
+      <c r="P21">
+        <v>1.145509551080465</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.396049265857812</v>
+        <v>5.630539592569221</v>
       </c>
       <c r="C22">
-        <v>1.007057057206424</v>
+        <v>1.433340872086546</v>
       </c>
       <c r="D22">
-        <v>0.06889012454194443</v>
+        <v>0.01648886469177668</v>
       </c>
       <c r="E22">
-        <v>0.3622764424805069</v>
+        <v>0.03667079541266638</v>
       </c>
       <c r="F22">
-        <v>0.7695179066547126</v>
+        <v>3.18388534475622</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.0002867697613879727</v>
+      </c>
+      <c r="I22">
+        <v>0.001437089417222204</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.588609055506879</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.07532162375195739</v>
       </c>
       <c r="M22">
-        <v>1.75850562145574</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3537241813108096</v>
       </c>
       <c r="O22">
-        <v>1.969389477186525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.9686123336615537</v>
+      </c>
+      <c r="P22">
+        <v>1.126596595076386</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.233347008744033</v>
+        <v>5.430325459441178</v>
       </c>
       <c r="C23">
-        <v>0.9725989829246942</v>
+        <v>1.377107854288909</v>
       </c>
       <c r="D23">
-        <v>0.06664339315287293</v>
+        <v>0.01574024695166187</v>
       </c>
       <c r="E23">
-        <v>0.347041617027962</v>
+        <v>0.03528530320397749</v>
       </c>
       <c r="F23">
-        <v>0.7418086580026824</v>
+        <v>3.103395140061764</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.0006517739417559731</v>
+      </c>
+      <c r="I23">
+        <v>0.001444008413316489</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.555750432003862</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07290537046406165</v>
       </c>
       <c r="M23">
-        <v>1.690288649141749</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3419319917572921</v>
       </c>
       <c r="O23">
-        <v>1.902048437059705</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.9345463358360888</v>
+      </c>
+      <c r="P23">
+        <v>1.139369515801611</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.621356087462971</v>
+        <v>4.66269969039638</v>
       </c>
       <c r="C24">
-        <v>0.8428035320796141</v>
+        <v>1.16938173851122</v>
       </c>
       <c r="D24">
-        <v>0.0581734867796655</v>
+        <v>0.01281985468414604</v>
       </c>
       <c r="E24">
-        <v>0.2916126005939148</v>
+        <v>0.03018168362263562</v>
       </c>
       <c r="F24">
-        <v>0.6418039907156015</v>
+        <v>2.791075742353343</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.003451743060149504</v>
+      </c>
+      <c r="I24">
+        <v>0.003583356426887008</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.424990067664069</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.06397554398830074</v>
       </c>
       <c r="M24">
-        <v>1.435365110535884</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.298412408321127</v>
       </c>
       <c r="O24">
-        <v>1.663086107475209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8050279031408536</v>
+      </c>
+      <c r="P24">
+        <v>1.184441214972814</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.967980209076075</v>
+        <v>3.842249889707205</v>
       </c>
       <c r="C25">
-        <v>0.7038880197476658</v>
+        <v>0.9509447469676218</v>
       </c>
       <c r="D25">
-        <v>0.04909623628450532</v>
+        <v>0.00988629991427814</v>
       </c>
       <c r="E25">
-        <v>0.2357977348421088</v>
+        <v>0.02497407625797265</v>
       </c>
       <c r="F25">
-        <v>0.5429177541822909</v>
+        <v>2.463098991401552</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.009156407917317255</v>
+      </c>
+      <c r="I25">
+        <v>0.008987777594541946</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.28771277513593</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.054723519574436</v>
       </c>
       <c r="M25">
-        <v>1.166167232844927</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2521168362124229</v>
       </c>
       <c r="O25">
-        <v>1.434665084700129</v>
+        <v>0.6667170841587762</v>
+      </c>
+      <c r="P25">
+        <v>1.235258242257657</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.2621856869917</v>
+        <v>2.921593057568714</v>
       </c>
       <c r="C2">
-        <v>0.7908174557828715</v>
+        <v>0.8453116298074406</v>
       </c>
       <c r="D2">
-        <v>0.008166549461627426</v>
+        <v>0.005473090299705774</v>
       </c>
       <c r="E2">
-        <v>0.02136377268401723</v>
+        <v>0.02258494380180398</v>
       </c>
       <c r="F2">
-        <v>2.245731452558701</v>
+        <v>1.900041154716263</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01528204648894249</v>
+        <v>0.01218078237941511</v>
       </c>
       <c r="I2">
-        <v>0.01437144798955448</v>
+        <v>0.01012319699043474</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>1.201450430960342</v>
+        <v>0.9555306082154118</v>
       </c>
       <c r="L2">
-        <v>0.0481356593962925</v>
+        <v>0.3908764633811117</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.3262946416066583</v>
       </c>
       <c r="N2">
-        <v>0.2173357664661637</v>
+        <v>0.04944414911969019</v>
       </c>
       <c r="O2">
-        <v>0.5675783302764117</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.281340209118383</v>
+        <v>0.246891396073508</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5357037678232288</v>
+      </c>
+      <c r="R2">
+        <v>1.11836246460803</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.859216988358924</v>
+        <v>2.565817415347396</v>
       </c>
       <c r="C3">
-        <v>0.6857648690597955</v>
+        <v>0.7323709882393814</v>
       </c>
       <c r="D3">
-        <v>0.006879715165464262</v>
+        <v>0.004742761005472218</v>
       </c>
       <c r="E3">
-        <v>0.01896530043806965</v>
+        <v>0.02031716937780104</v>
       </c>
       <c r="F3">
-        <v>2.090884938329253</v>
+        <v>1.784602083783938</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02058441098920261</v>
+        <v>0.01649055930398569</v>
       </c>
       <c r="I3">
-        <v>0.01973652184709973</v>
+        <v>0.01402522479952051</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>1.137080828745788</v>
+        <v>0.9162838811232987</v>
       </c>
       <c r="L3">
-        <v>0.04373969726033344</v>
+        <v>0.3833551509319619</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.3058070843939191</v>
       </c>
       <c r="N3">
-        <v>0.1945817372292282</v>
+        <v>0.04502467080978967</v>
       </c>
       <c r="O3">
-        <v>0.4996316134520313</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.309472335185767</v>
+        <v>0.2215691543370966</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4722597105043533</v>
+      </c>
+      <c r="R3">
+        <v>1.15423209106677</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.611983766038804</v>
+        <v>2.346841089691964</v>
       </c>
       <c r="C4">
-        <v>0.622022399297208</v>
+        <v>0.6638445071578758</v>
       </c>
       <c r="D4">
-        <v>0.006106048986730173</v>
+        <v>0.004304650579936009</v>
       </c>
       <c r="E4">
-        <v>0.01751890900333208</v>
+        <v>0.0189419562922577</v>
       </c>
       <c r="F4">
-        <v>1.996726679578956</v>
+        <v>1.714243965684815</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.02435058541163482</v>
+        <v>0.01956131602547495</v>
       </c>
       <c r="I4">
-        <v>0.02361683283023019</v>
+        <v>0.01688246749166922</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>1.097840615139589</v>
+        <v>0.8922434204243501</v>
       </c>
       <c r="L4">
-        <v>0.04106304214644574</v>
+        <v>0.378364194855294</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.294204765640842</v>
       </c>
       <c r="N4">
-        <v>0.1806975050613602</v>
+        <v>0.04232827721463828</v>
       </c>
       <c r="O4">
-        <v>0.4579960156614362</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.32701414646624</v>
+        <v>0.2061364918823898</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4333088485374859</v>
+      </c>
+      <c r="R4">
+        <v>1.176651073877963</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.509235416245815</v>
+        <v>2.255647747688727</v>
       </c>
       <c r="C5">
-        <v>0.5965203952010825</v>
+        <v>0.6364006757076481</v>
       </c>
       <c r="D5">
-        <v>0.005762378437511373</v>
+        <v>0.004110488508198173</v>
       </c>
       <c r="E5">
-        <v>0.01693007024727322</v>
+        <v>0.0183803654425132</v>
       </c>
       <c r="F5">
-        <v>1.956679318786527</v>
+        <v>1.6840642475115</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.02602031064615384</v>
+        <v>0.02092500549280196</v>
       </c>
       <c r="I5">
-        <v>0.0254407675209678</v>
+        <v>0.0182680915361022</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>1.080629704094889</v>
+        <v>0.8814002814965889</v>
       </c>
       <c r="L5">
-        <v>0.03997424044345976</v>
+        <v>0.3757858515585397</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2893781379058851</v>
       </c>
       <c r="N5">
-        <v>0.175170306577904</v>
+        <v>0.04123407779977128</v>
       </c>
       <c r="O5">
-        <v>0.4408525947572173</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.333455004599692</v>
+        <v>0.1999844257242458</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4172569516985192</v>
+      </c>
+      <c r="R5">
+        <v>1.18539698030806</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.48971190315001</v>
+        <v>2.238288627945906</v>
       </c>
       <c r="C6">
-        <v>0.5926684412195016</v>
+        <v>0.6322176764292635</v>
       </c>
       <c r="D6">
-        <v>0.005666926453647747</v>
+        <v>0.004057085614553202</v>
       </c>
       <c r="E6">
-        <v>0.01682694580563737</v>
+        <v>0.01828200644183653</v>
       </c>
       <c r="F6">
-        <v>1.947741435377623</v>
+        <v>1.677079347699191</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.02631999604123259</v>
+        <v>0.02116999009386777</v>
       </c>
       <c r="I6">
-        <v>0.02588400707189376</v>
+        <v>0.01864844504642882</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>1.076210580729686</v>
+        <v>0.8783127475821146</v>
       </c>
       <c r="L6">
-        <v>0.03979183620145932</v>
+        <v>0.3748030431761009</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2881764700936387</v>
       </c>
       <c r="N6">
-        <v>0.1743908165115258</v>
+        <v>0.04105520956017727</v>
       </c>
       <c r="O6">
-        <v>0.4377725323554529</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.333588959541785</v>
+        <v>0.1991002640535697</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4143765411322349</v>
+      </c>
+      <c r="R6">
+        <v>1.186265089841275</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.603846319209936</v>
+        <v>2.339567325458972</v>
       </c>
       <c r="C7">
-        <v>0.622698213372388</v>
+        <v>0.6644682681755114</v>
       </c>
       <c r="D7">
-        <v>0.005995462284165143</v>
+        <v>0.004244122978981579</v>
       </c>
       <c r="E7">
-        <v>0.01749545534654562</v>
+        <v>0.01891990660660525</v>
       </c>
       <c r="F7">
-        <v>1.989897542268849</v>
+        <v>1.708432688803725</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.02441189295383328</v>
+        <v>0.01961156777134754</v>
       </c>
       <c r="I7">
-        <v>0.02398108215800132</v>
+        <v>0.01727089052397446</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>1.093330407639137</v>
+        <v>0.8885868166457058</v>
       </c>
       <c r="L7">
-        <v>0.04104346370681355</v>
+        <v>0.3768539393912818</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2929865273773977</v>
       </c>
       <c r="N7">
-        <v>0.1809987013777814</v>
+        <v>0.04232120885534485</v>
       </c>
       <c r="O7">
-        <v>0.4571227285135109</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1.324551815517189</v>
+        <v>0.2064258299011712</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4325041968105197</v>
+      </c>
+      <c r="R7">
+        <v>1.175188256723747</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.114129244591766</v>
+        <v>2.790942256986511</v>
       </c>
       <c r="C8">
-        <v>0.7557807703156527</v>
+        <v>0.807510222623165</v>
       </c>
       <c r="D8">
-        <v>0.007576839958275627</v>
+        <v>0.005143434369275113</v>
       </c>
       <c r="E8">
-        <v>0.02050927215384135</v>
+        <v>0.02177913173377277</v>
       </c>
       <c r="F8">
-        <v>2.183782330373759</v>
+        <v>1.852982445226075</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.01704272723452915</v>
+        <v>0.0136099753781187</v>
       </c>
       <c r="I8">
-        <v>0.01649303310112504</v>
+        <v>0.01180699267438978</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>1.173514395167729</v>
+        <v>0.9373641809975837</v>
       </c>
       <c r="L8">
-        <v>0.04660704367337054</v>
+        <v>0.386505418834048</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.3174188055957075</v>
       </c>
       <c r="N8">
-        <v>0.2099721919425335</v>
+        <v>0.04792678431490138</v>
       </c>
       <c r="O8">
-        <v>0.5432676366845044</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1.287689114329019</v>
+        <v>0.2386330969293482</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5130374553324728</v>
+      </c>
+      <c r="R8">
+        <v>1.12869233180291</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.130346557503628</v>
+        <v>3.683982750826772</v>
       </c>
       <c r="C9">
-        <v>1.022029079466165</v>
+        <v>1.093771533180927</v>
       </c>
       <c r="D9">
-        <v>0.01104554566241234</v>
+        <v>0.007124894528953263</v>
       </c>
       <c r="E9">
-        <v>0.02672617445156966</v>
+        <v>0.02760718036559062</v>
       </c>
       <c r="F9">
-        <v>2.583934799420732</v>
+        <v>2.151220735462516</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006869211646542694</v>
+        <v>0.005389416887840448</v>
       </c>
       <c r="I9">
-        <v>0.006290196709519691</v>
+        <v>0.00444877591997006</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>1.341246631214531</v>
+        <v>1.040067484916243</v>
       </c>
       <c r="L9">
-        <v>0.05781104853318197</v>
+        <v>0.4049848293970442</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3755681620660809</v>
       </c>
       <c r="N9">
-        <v>0.2669477600058627</v>
+        <v>0.05913051039445172</v>
       </c>
       <c r="O9">
-        <v>0.7143511348729064</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1.2221625826813</v>
+        <v>0.3021758606692089</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.6722993833773785</v>
+      </c>
+      <c r="R9">
+        <v>1.043421907875381</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.850396214617035</v>
+        <v>4.315117726559038</v>
       </c>
       <c r="C10">
-        <v>1.220091609067708</v>
+        <v>1.305900694125683</v>
       </c>
       <c r="D10">
-        <v>0.01381717413361727</v>
+        <v>0.008786161753731037</v>
       </c>
       <c r="E10">
-        <v>0.03209310602693805</v>
+        <v>0.03260010468719621</v>
       </c>
       <c r="F10">
-        <v>2.846865658806706</v>
+        <v>2.344398033141232</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.002782255309953907</v>
+        <v>0.002172905127213021</v>
       </c>
       <c r="I10">
-        <v>0.002528522387420296</v>
+        <v>0.001994790159079329</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>1.445972598602879</v>
+        <v>1.101179327231151</v>
       </c>
       <c r="L10">
-        <v>0.06702420559003031</v>
+        <v>0.4113031856148837</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.4175895296289625</v>
       </c>
       <c r="N10">
-        <v>0.3009231080797292</v>
+        <v>0.06862454560800302</v>
       </c>
       <c r="O10">
-        <v>0.8312304144651321</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>1.164107962167975</v>
+        <v>0.3402831519219518</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.7806807650700094</v>
+      </c>
+      <c r="R10">
+        <v>0.9775768171517427</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.924602673799143</v>
+        <v>4.401211324418682</v>
       </c>
       <c r="C11">
-        <v>1.277957250434213</v>
+        <v>1.362804485421066</v>
       </c>
       <c r="D11">
-        <v>0.01587517892461321</v>
+        <v>0.0104713273812429</v>
       </c>
       <c r="E11">
-        <v>0.04068911255460073</v>
+        <v>0.04084843929935644</v>
       </c>
       <c r="F11">
-        <v>2.656660431288984</v>
+        <v>2.186310080008212</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02100019500756289</v>
+        <v>0.02048065396853005</v>
       </c>
       <c r="I11">
-        <v>0.002469037272257779</v>
+        <v>0.002256559621626408</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.326546575987209</v>
+        <v>1.007909259014724</v>
       </c>
       <c r="L11">
-        <v>0.08130731130555091</v>
+        <v>0.3709565959751018</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3894907012488531</v>
       </c>
       <c r="N11">
-        <v>0.2448240855572266</v>
+        <v>0.08580179969383295</v>
       </c>
       <c r="O11">
-        <v>0.8008902797653761</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1.055084320551309</v>
+        <v>0.2791187177591894</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7526562320615042</v>
+      </c>
+      <c r="R11">
+        <v>0.9136531486873523</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.842528122065573</v>
+        <v>4.347431167024126</v>
       </c>
       <c r="C12">
-        <v>1.282074392729783</v>
+        <v>1.36304649067182</v>
       </c>
       <c r="D12">
-        <v>0.01722261011786941</v>
+        <v>0.01169242556929717</v>
       </c>
       <c r="E12">
-        <v>0.0488183755723437</v>
+        <v>0.04878907112710174</v>
       </c>
       <c r="F12">
-        <v>2.454538374746789</v>
+        <v>2.02361257339264</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05980751891654279</v>
+        <v>0.05925867102379812</v>
       </c>
       <c r="I12">
-        <v>0.002431127751950868</v>
+        <v>0.002223879285788044</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.214012124172612</v>
+        <v>0.9244537007870193</v>
       </c>
       <c r="L12">
-        <v>0.09717652753477068</v>
+        <v>0.3391953900538311</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3592214642058096</v>
       </c>
       <c r="N12">
-        <v>0.1954430513011829</v>
+        <v>0.1038305196132683</v>
       </c>
       <c r="O12">
-        <v>0.7519734545380601</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9923120297047063</v>
+        <v>0.2248136059065047</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.707375333527601</v>
+      </c>
+      <c r="R12">
+        <v>0.8862120942794647</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.625084697750083</v>
+        <v>4.173525095141997</v>
       </c>
       <c r="C13">
-        <v>1.246349066306038</v>
+        <v>1.32094913211705</v>
       </c>
       <c r="D13">
-        <v>0.01788059376723083</v>
+        <v>0.01251324832130507</v>
       </c>
       <c r="E13">
-        <v>0.05688281744656365</v>
+        <v>0.056788485566587</v>
       </c>
       <c r="F13">
-        <v>2.22226641001032</v>
+        <v>1.839676420355673</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1161337432829015</v>
+        <v>0.1154482468373175</v>
       </c>
       <c r="I13">
-        <v>0.002781621579438287</v>
+        <v>0.002405468987673132</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>1.09383648446186</v>
+        <v>0.8382508505482562</v>
       </c>
       <c r="L13">
-        <v>0.1148850385211801</v>
+        <v>0.3095721578205826</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.323903326426354</v>
       </c>
       <c r="N13">
-        <v>0.1493375638175678</v>
+        <v>0.1232237479683675</v>
       </c>
       <c r="O13">
-        <v>0.685328863750307</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9568180190752091</v>
+        <v>0.1736675200362328</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6456103069674839</v>
+      </c>
+      <c r="R13">
+        <v>0.8817053343433532</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.410916371007715</v>
+        <v>3.996481110649768</v>
       </c>
       <c r="C14">
-        <v>1.20383140663057</v>
+        <v>1.272854951939848</v>
       </c>
       <c r="D14">
-        <v>0.01798587089217563</v>
+        <v>0.01288713777636019</v>
       </c>
       <c r="E14">
-        <v>0.0626752985337049</v>
+        <v>0.06259665867076691</v>
       </c>
       <c r="F14">
-        <v>2.046668414541159</v>
+        <v>1.701489792844072</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1661302691870645</v>
+        <v>0.1652874247751299</v>
       </c>
       <c r="I14">
-        <v>0.00337367999301641</v>
+        <v>0.002792149724101911</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>1.006497447331569</v>
+        <v>0.7766078205488114</v>
       </c>
       <c r="L14">
-        <v>0.1287324755299792</v>
+        <v>0.2894795836348862</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2972014866431891</v>
       </c>
       <c r="N14">
-        <v>0.1197345756826707</v>
+        <v>0.1379768041778391</v>
       </c>
       <c r="O14">
-        <v>0.6310853746882259</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9455647030032228</v>
+        <v>0.1405705758132285</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5952765741613604</v>
+      </c>
+      <c r="R14">
+        <v>0.8897150109750012</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.328176544500991</v>
+        <v>3.926096526356844</v>
       </c>
       <c r="C15">
-        <v>1.185599567978784</v>
+        <v>1.252746994925758</v>
       </c>
       <c r="D15">
-        <v>0.01780758488029122</v>
+        <v>0.01285012322723134</v>
       </c>
       <c r="E15">
-        <v>0.06377685380107323</v>
+        <v>0.06372641580349381</v>
       </c>
       <c r="F15">
-        <v>1.995304762945949</v>
+        <v>1.661418708201865</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1789583780046087</v>
+        <v>0.1780414779363753</v>
       </c>
       <c r="I15">
-        <v>0.003777977486013384</v>
+        <v>0.003116182234157883</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.9819945259843905</v>
+        <v>0.759685188969442</v>
       </c>
       <c r="L15">
-        <v>0.1317413202409057</v>
+        <v>0.2843813770845784</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2893048692383573</v>
       </c>
       <c r="N15">
-        <v>0.1126364803833511</v>
+        <v>0.1411237431927219</v>
       </c>
       <c r="O15">
-        <v>0.6139671327383667</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9465833022064642</v>
+        <v>0.132583932038898</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5793800668283353</v>
+      </c>
+      <c r="R15">
+        <v>0.8950457609186913</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.063487564979198</v>
+        <v>3.690027757562916</v>
       </c>
       <c r="C16">
-        <v>1.108039345260465</v>
+        <v>1.170508962759811</v>
       </c>
       <c r="D16">
-        <v>0.01629408640996388</v>
+        <v>0.01185671617758999</v>
       </c>
       <c r="E16">
-        <v>0.05944267030169925</v>
+        <v>0.05959313416066792</v>
       </c>
       <c r="F16">
-        <v>1.930090336398649</v>
+        <v>1.614890270403805</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1679071551430837</v>
+        <v>0.1666289361815672</v>
       </c>
       <c r="I16">
-        <v>0.005338218262715522</v>
+        <v>0.004199728202619823</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.9611197877514002</v>
+        <v>0.7496619985994499</v>
       </c>
       <c r="L16">
-        <v>0.1235229966244091</v>
+        <v>0.2854212709829298</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2792788524806866</v>
       </c>
       <c r="N16">
-        <v>0.1090991930506462</v>
+        <v>0.1322721013534505</v>
       </c>
       <c r="O16">
-        <v>0.5788325010721636</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9757315923230072</v>
+        <v>0.128510496978727</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5466867976444831</v>
+      </c>
+      <c r="R16">
+        <v>0.9197939312962689</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.973550945238344</v>
+        <v>3.602551401636561</v>
       </c>
       <c r="C17">
-        <v>1.071406901642774</v>
+        <v>1.133251150478429</v>
       </c>
       <c r="D17">
-        <v>0.01509773448946561</v>
+        <v>0.01090409661783198</v>
       </c>
       <c r="E17">
-        <v>0.0529461223942338</v>
+        <v>0.05323363114824353</v>
       </c>
       <c r="F17">
-        <v>1.971991611185842</v>
+        <v>1.651803669703796</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1311279316255423</v>
+        <v>0.1296501450629819</v>
       </c>
       <c r="I17">
-        <v>0.006286761917679407</v>
+        <v>0.004888257751096248</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.9906221787433438</v>
+        <v>0.774263164837194</v>
       </c>
       <c r="L17">
-        <v>0.109496589366934</v>
+        <v>0.2971088258395511</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2853134180953205</v>
       </c>
       <c r="N17">
-        <v>0.1213429425094432</v>
+        <v>0.1173369113221341</v>
       </c>
       <c r="O17">
-        <v>0.5802796470524711</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1.003228340434672</v>
+        <v>0.1421308531848098</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5479918244590181</v>
+      </c>
+      <c r="R17">
+        <v>0.9344031634997734</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.028007461114044</v>
+        <v>3.636947495613811</v>
       </c>
       <c r="C18">
-        <v>1.064229201854857</v>
+        <v>1.128846261243666</v>
       </c>
       <c r="D18">
-        <v>0.01413009563157175</v>
+        <v>0.00995540253592786</v>
       </c>
       <c r="E18">
-        <v>0.04475791088857406</v>
+        <v>0.04515925259920017</v>
       </c>
       <c r="F18">
-        <v>2.118206371464083</v>
+        <v>1.770835459129785</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07849653276698376</v>
+        <v>0.07699722300274914</v>
       </c>
       <c r="I18">
-        <v>0.006246127846194938</v>
+        <v>0.004759319776018955</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>1.072075461381878</v>
+        <v>0.8355827809143221</v>
       </c>
       <c r="L18">
-        <v>0.09144127368871224</v>
+        <v>0.3211709363604527</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.306905247229956</v>
       </c>
       <c r="N18">
-        <v>0.1513854525827512</v>
+        <v>0.09792157055491657</v>
       </c>
       <c r="O18">
-        <v>0.6143054821897209</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1.039874616469545</v>
+        <v>0.1754863708052241</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5795741452759131</v>
+      </c>
+      <c r="R18">
+        <v>0.9472380243978549</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.182295083209056</v>
+        <v>3.755526379584808</v>
       </c>
       <c r="C19">
-        <v>1.082922782136961</v>
+        <v>1.15277948021776</v>
       </c>
       <c r="D19">
-        <v>0.01319017065481631</v>
+        <v>0.008976214899366397</v>
       </c>
       <c r="E19">
-        <v>0.03704756454114921</v>
+        <v>0.03756173546837971</v>
       </c>
       <c r="F19">
-        <v>2.333600182500518</v>
+        <v>1.943178804172007</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.0325685448247981</v>
+        <v>0.03121894524931434</v>
       </c>
       <c r="I19">
-        <v>0.005949863280450884</v>
+        <v>0.00463720983482041</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>1.186894217314943</v>
+        <v>0.9195783627319614</v>
       </c>
       <c r="L19">
-        <v>0.07548258236927907</v>
+        <v>0.3526048431048636</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3384202196609465</v>
       </c>
       <c r="N19">
-        <v>0.1988792710339169</v>
+        <v>0.08016172679094069</v>
       </c>
       <c r="O19">
-        <v>0.6721779285225793</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>1.088940050820476</v>
+        <v>0.2278757240357692</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6332971284746023</v>
+      </c>
+      <c r="R19">
+        <v>0.964561305776976</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.637878386770183</v>
+        <v>4.129050551734622</v>
       </c>
       <c r="C20">
-        <v>1.170682483254552</v>
+        <v>1.252679742294788</v>
       </c>
       <c r="D20">
-        <v>0.01273649427429646</v>
+        <v>0.008173822019177379</v>
       </c>
       <c r="E20">
-        <v>0.03062292068980543</v>
+        <v>0.03123827798000445</v>
       </c>
       <c r="F20">
-        <v>2.756055631082916</v>
+        <v>2.275466666373859</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.003676359078839564</v>
+        <v>0.002866095466911744</v>
       </c>
       <c r="I20">
-        <v>0.004146708192599213</v>
+        <v>0.003467041984538177</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823846983</v>
       </c>
       <c r="K20">
-        <v>1.40411270896962</v>
+        <v>1.073773622291597</v>
       </c>
       <c r="L20">
-        <v>0.06458270396358046</v>
+        <v>0.405623858861162</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.4018535650199127</v>
       </c>
       <c r="N20">
-        <v>0.2927857587255289</v>
+        <v>0.06617485848537896</v>
       </c>
       <c r="O20">
-        <v>0.7979813418174544</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>1.171541598840001</v>
+        <v>0.3310182488422555</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.7499233340225331</v>
+      </c>
+      <c r="R20">
+        <v>0.9906305163874016</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.240026008128552</v>
+        <v>4.651516659783681</v>
       </c>
       <c r="C21">
-        <v>1.330573560952359</v>
+        <v>1.424721864036144</v>
       </c>
       <c r="D21">
-        <v>0.01485509248996664</v>
+        <v>0.009380023418158245</v>
       </c>
       <c r="E21">
-        <v>0.03405123278675326</v>
+        <v>0.03438281352030348</v>
       </c>
       <c r="F21">
-        <v>3.019347083465448</v>
+        <v>2.472343569700186</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.001110343608963449</v>
+        <v>0.0008187533025667548</v>
       </c>
       <c r="I21">
-        <v>0.002191225295825383</v>
+        <v>0.002246450819013646</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>1.517639007900797</v>
+        <v>1.144653308441789</v>
       </c>
       <c r="L21">
-        <v>0.07079914217529293</v>
+        <v>0.4186031881312431</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.4449110162228251</v>
       </c>
       <c r="N21">
-        <v>0.3325314753169692</v>
+        <v>0.07206197084067512</v>
       </c>
       <c r="O21">
-        <v>0.9033490214425441</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>1.145509551080465</v>
+        <v>0.3752415042986996</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.8474166612622795</v>
+      </c>
+      <c r="R21">
+        <v>0.9495184096513647</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.630539592569221</v>
+        <v>4.99066794472742</v>
       </c>
       <c r="C22">
-        <v>1.433340872086546</v>
+        <v>1.535047752252638</v>
       </c>
       <c r="D22">
-        <v>0.01648886469177668</v>
+        <v>0.01033066149219231</v>
       </c>
       <c r="E22">
-        <v>0.03667079541266638</v>
+        <v>0.03678489927744888</v>
       </c>
       <c r="F22">
-        <v>3.18388534475622</v>
+        <v>2.595147301413007</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.0002867697613879727</v>
+        <v>0.0001916116964708614</v>
       </c>
       <c r="I22">
-        <v>0.001437089417222204</v>
+        <v>0.001707402649905099</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>1.588609055506879</v>
+        <v>1.188850728287818</v>
       </c>
       <c r="L22">
-        <v>0.07532162375195739</v>
+        <v>0.4258035795499637</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4732790922008121</v>
       </c>
       <c r="N22">
-        <v>0.3537241813108096</v>
+        <v>0.07649377994594175</v>
       </c>
       <c r="O22">
-        <v>0.9686123336615537</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>1.126596595076386</v>
+        <v>0.3989654457110277</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.9076641482499213</v>
+      </c>
+      <c r="R22">
+        <v>0.922187039549776</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.430325459441178</v>
+        <v>4.81699519834774</v>
       </c>
       <c r="C23">
-        <v>1.377107854288909</v>
+        <v>1.474807099450288</v>
       </c>
       <c r="D23">
-        <v>0.01574024695166187</v>
+        <v>0.009881015659388481</v>
       </c>
       <c r="E23">
-        <v>0.03528530320397749</v>
+        <v>0.03551512671529533</v>
       </c>
       <c r="F23">
-        <v>3.103395140061764</v>
+        <v>2.535795663784725</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.0006517739417559731</v>
+        <v>0.0004661003795551899</v>
       </c>
       <c r="I23">
-        <v>0.001444008413316489</v>
+        <v>0.001558669617159225</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>1.555750432003862</v>
+        <v>1.169269475735902</v>
       </c>
       <c r="L23">
-        <v>0.07290537046406165</v>
+        <v>0.4234088620419243</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4596522971966053</v>
       </c>
       <c r="N23">
-        <v>0.3419319917572921</v>
+        <v>0.07410783820865241</v>
       </c>
       <c r="O23">
-        <v>0.9345463358360888</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>1.139369515801611</v>
+        <v>0.3858212123390388</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.8762136088374888</v>
+      </c>
+      <c r="R23">
+        <v>0.9381174388312949</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.66269969039638</v>
+        <v>4.149007625485297</v>
       </c>
       <c r="C24">
-        <v>1.16938173851122</v>
+        <v>1.251887376396098</v>
       </c>
       <c r="D24">
-        <v>0.01281985468414604</v>
+        <v>0.008168017110749659</v>
       </c>
       <c r="E24">
-        <v>0.03018168362263562</v>
+        <v>0.03081446684415923</v>
       </c>
       <c r="F24">
-        <v>2.791075742353343</v>
+        <v>2.304014991141514</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.003451743060149504</v>
+        <v>0.002660443625077002</v>
       </c>
       <c r="I24">
-        <v>0.003583356426887008</v>
+        <v>0.002821408429486638</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555349711</v>
       </c>
       <c r="K24">
-        <v>1.424990067664069</v>
+        <v>1.089649163079727</v>
       </c>
       <c r="L24">
-        <v>0.06397554398830074</v>
+        <v>0.4116070740754978</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.4077636949200851</v>
       </c>
       <c r="N24">
-        <v>0.298412408321127</v>
+        <v>0.065284545152684</v>
       </c>
       <c r="O24">
-        <v>0.8050279031408536</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>1.184441214972814</v>
+        <v>0.3372214889688507</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.7564236892257483</v>
+      </c>
+      <c r="R24">
+        <v>0.9974001164048296</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.842249889707205</v>
+        <v>3.431382009491529</v>
       </c>
       <c r="C25">
-        <v>0.9509447469676218</v>
+        <v>1.017187526192004</v>
       </c>
       <c r="D25">
-        <v>0.00988629991427814</v>
+        <v>0.006471895204294142</v>
       </c>
       <c r="E25">
-        <v>0.02497407625797265</v>
+        <v>0.02597357316475257</v>
       </c>
       <c r="F25">
-        <v>2.463098991401552</v>
+        <v>2.060122081336644</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.009156407917317255</v>
+        <v>0.007227973730885517</v>
       </c>
       <c r="I25">
-        <v>0.008987777594541946</v>
+        <v>0.006572888767457208</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.0759519602266292</v>
       </c>
       <c r="K25">
-        <v>1.28771277513593</v>
+        <v>1.005883192227209</v>
       </c>
       <c r="L25">
-        <v>0.054723519574436</v>
+        <v>0.3979146238869902</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3566168488498889</v>
       </c>
       <c r="N25">
-        <v>0.2521168362124229</v>
+        <v>0.05607865344151186</v>
       </c>
       <c r="O25">
-        <v>0.6667170841587762</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>1.235258242257657</v>
+        <v>0.2855422385588753</v>
       </c>
       <c r="Q25">
+        <v>0.628059154052913</v>
+      </c>
+      <c r="R25">
+        <v>1.063675861685223</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
